--- a/products.xlsx
+++ b/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PRODUCT UPLOAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC72709-8332-4457-89D0-6ACA549F0DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DD8626-15F5-4917-A187-38DEECDF115C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19200" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>Category</t>
   </si>
@@ -68,15 +68,6 @@
     <t>https://i.postimg.cc/T1vtJY5j/Whats-App-Image-2025-05-27-at-17-21-37.jpg</t>
   </si>
   <si>
-    <t>VEER - KIDS SUIT - 24-26 - 3PCS BOX - COTTON - 311</t>
-  </si>
-  <si>
-    <t>VEER - KIDS SUIT - 24-26 - 3PCS BOX - WASHING - 344</t>
-  </si>
-  <si>
-    <t>VEER - KIDS SUIT - 24-26 - 3PCS BOX - COTTON - 294</t>
-  </si>
-  <si>
     <t>BEN 10 - KIDS SUIT - 20 - 3PCS BOX - COTTON - 78</t>
   </si>
   <si>
@@ -96,6 +87,108 @@
   </si>
   <si>
     <t>BEN 10-282/3</t>
+  </si>
+  <si>
+    <t>VEER - KIDS SUIT - 22-26 - 3PCS BOX - COTTON - 311</t>
+  </si>
+  <si>
+    <t>VEER - KIDS SUIT - 22-26 - 3PCS BOX - WASHING - 344</t>
+  </si>
+  <si>
+    <t>VEER - KIDS SUIT - 22-26 - 3PCS BOX - COTTON - 294</t>
+  </si>
+  <si>
+    <t>CRISPY A-51009</t>
+  </si>
+  <si>
+    <t>CRISPY-5974</t>
+  </si>
+  <si>
+    <t>CRISPY-29954 (N)</t>
+  </si>
+  <si>
+    <t>CRISPY-9003</t>
+  </si>
+  <si>
+    <t>CRISPY-30834</t>
+  </si>
+  <si>
+    <t>CRISPY-1610</t>
+  </si>
+  <si>
+    <t>CRISPY-30756</t>
+  </si>
+  <si>
+    <t>CRISPY-95074</t>
+  </si>
+  <si>
+    <t>JSON-7442</t>
+  </si>
+  <si>
+    <t>JSON-7441</t>
+  </si>
+  <si>
+    <t>INDOWESTERN</t>
+  </si>
+  <si>
+    <t>CRISPY A-51009 - INDOWESTERN - 18-24 - 1 PCS BOX - IMPORTED - 853</t>
+  </si>
+  <si>
+    <t>CRISPY-5974 - INDOWESTERN - 0-36 - 1 PCS BOX - IMPORTED - 974</t>
+  </si>
+  <si>
+    <t>CRISPY-29954 (N) - INDOWESTERN - 16-20 - 1 PCS BOX - IMPORTED - 806</t>
+  </si>
+  <si>
+    <t>CRISPY-9003 - INDOWESTERN - 16-20 - 1 PCS BOX - IMPORTED - 780</t>
+  </si>
+  <si>
+    <t>CRISPY-30834 - INDOWESTERN - 18-22 - 1 PCS BOX - IMPORTED - 1196</t>
+  </si>
+  <si>
+    <t>CRISPY-1610 - INDOWESTERN - 0-32 - 1 PCS BOX - IMPORTED - 1017</t>
+  </si>
+  <si>
+    <t>CRISPY-30756 - INDOWESTERN - 16-26 - 1 PCS BOX - IMPORTED - 988</t>
+  </si>
+  <si>
+    <t>CRISPY-95074 - INDOWESTERN - 22-32 - 1 PCS BOX - IMPORTED - 885</t>
+  </si>
+  <si>
+    <t>JSON-7442 - KIDS SUIT - 22-32 - 1 PCS BOX - 1</t>
+  </si>
+  <si>
+    <t>JSON-7441 - KIDS SUIT - 22-32 - 1 PCS BOX - 1</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/7ZzyxbMD/CRISPY-INDOWESERN-1-PCS-BOX-RATE-1009.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/504cqgcN/CRISPY-INDOWESERN-1-PCS-BOX-RATE-974.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/QMrZVs07/Whats-App-Image-2025-05-27-at-17-06-27.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Rhhj20Vk/Whats-App-Image-2025-05-27-at-17-06-28.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/nLYbD5PP/Whats-App-Image-2025-05-27-at-17-06-28-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/W3XB9Zjm/Whats-App-Image-2025-05-27-at-17-06-28-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/59kcL8sb/Whats-App-Image-2025-05-27-at-17-06-29.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Fz62vQY7/Whats-App-Image-2025-05-27-at-17-06-29-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/BQddw4Wz/Whats-App-Image-2025-05-27-at-17-06-30.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/CLZ3Nd2D/Whats-App-Image-2025-05-27-at-17-06-30-1.jpg</t>
   </si>
 </sst>
 </file>
@@ -126,15 +219,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -157,6 +256,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -165,7 +277,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -174,6 +286,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -481,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +630,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -523,7 +639,7 @@
         <v>311</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -532,7 +648,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -541,7 +657,7 @@
         <v>344</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -550,7 +666,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -559,7 +675,7 @@
         <v>294</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -568,7 +684,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -577,7 +693,7 @@
         <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -586,7 +702,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -595,7 +711,7 @@
         <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -603,31 +719,180 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7" s="2"/>
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3">
+        <v>853</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="2"/>
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3">
+        <v>974</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="2"/>
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3">
+        <v>806</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3">
+        <v>780</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1196</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1017</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="2"/>
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3">
+        <v>988</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14" s="2"/>
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3">
+        <v>885</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15" s="2"/>
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E16" s="2"/>
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
@@ -698,8 +963,9 @@
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{0B7ECA14-0CDE-4C90-A53E-301CAF88E79D}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{EC1C6646-BB11-4170-BAF1-9FF99091E47A}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{8D46EBBB-F8D1-4CC7-9D30-62E302023FE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/products.xlsx
+++ b/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PRODUCT UPLOAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DD8626-15F5-4917-A187-38DEECDF115C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DBC27E-E420-408B-9D1E-DE95EEA249C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="148">
   <si>
     <t>Category</t>
   </si>
@@ -189,6 +189,294 @@
   </si>
   <si>
     <t>https://i.postimg.cc/CLZ3Nd2D/Whats-App-Image-2025-05-27-at-17-06-30-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/dtG6DkJj/Whats-App-Image-2025-05-28-at-14-10-40.jpg</t>
+  </si>
+  <si>
+    <t>UNDER 19 - 32-38 - 3PCS BOX - NS LYCRA - 235</t>
+  </si>
+  <si>
+    <t>UNDER 19</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/KckJSpVV/Whats-App-Image-2025-05-28-at-14-10-40-1.jpg</t>
+  </si>
+  <si>
+    <t>RICH BOND/A-3281 - 24-38 - 3PCS BOX - WASHING - 565</t>
+  </si>
+  <si>
+    <t>RICH BOND/A-3281</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/wMmVX3LH/Whats-App-Image-2025-05-28-at-14-10-41.jpg</t>
+  </si>
+  <si>
+    <t>RICH BOND/A-219 - 24-38 - 3PCS BOX - JORDEN CRUSH - 310</t>
+  </si>
+  <si>
+    <t>RICH BOND/A-219</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/YCk3Fr9K/Whats-App-Image-2025-05-28-at-14-10-41-1.jpg</t>
+  </si>
+  <si>
+    <t>RELAX WEAR/A-173 - 30-36 - 3PCS BOX - PC/COTTON - 220</t>
+  </si>
+  <si>
+    <t>RELAX WEAR/A-173</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/xCkyQqsH/Whats-App-Image-2025-05-28-at-14-10-42.jpg</t>
+  </si>
+  <si>
+    <t>RETRO/A-715 - 24-38 - 3PCS BOX - COTTON - 225</t>
+  </si>
+  <si>
+    <t>RETRO/A-715</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/GpgJ6vjd/Whats-App-Image-2025-05-28-at-14-10-42-1.jpg</t>
+  </si>
+  <si>
+    <t>RETRO/A-712 - 24-28 - 3PCS BOX - COTTON - 225</t>
+  </si>
+  <si>
+    <t>RETRO/A-712</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Nf88B3xN/Whats-App-Image-2025-05-28-at-14-10-43.jpg</t>
+  </si>
+  <si>
+    <t>CATTNOS/A-2002 - 24-36 - 6PCS BOX - PC/COTTON - 200</t>
+  </si>
+  <si>
+    <t>CATTNOS/A-2002</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/xCWG1Y7Z/Whats-App-Image-2025-05-28-at-14-10-43-1.jpg</t>
+  </si>
+  <si>
+    <t>CATTNOS/A-2001 - 30-36 - 6PCS BOX - PC/COTTON - 215</t>
+  </si>
+  <si>
+    <t>CATTNOS/A-2001</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/ryrCY0R2/Whats-App-Image-2025-05-28-at-14-10-43-2.jpg</t>
+  </si>
+  <si>
+    <t>CATTNOS/A-2007 - 24-36 - 6PCS BOX - PC/COTTON - 195</t>
+  </si>
+  <si>
+    <t>CATTNOS/A-2007</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/KYCx9sCb/Whats-App-Image-2025-05-28-at-14-10-44.jpg</t>
+  </si>
+  <si>
+    <t>RELAX WEAR/A-3301 - 26-36 - 3PCS BOX - DENIM - 330</t>
+  </si>
+  <si>
+    <t>RELAX WEAR/A-3301</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Wb7p28qm/Whats-App-Image-2025-05-28-at-14-10-44-1.jpg</t>
+  </si>
+  <si>
+    <t>RETRO/A-203 - 24-38 - 3PCS BOX - COTTON - 180</t>
+  </si>
+  <si>
+    <t>RETRO/A-203</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/NftfqSFf/Whats-App-Image-2025-05-28-at-14-10-45.jpg</t>
+  </si>
+  <si>
+    <t>CORDIAL/A-6431 - 5----7 - 3PCS BOX - DENIM - 325</t>
+  </si>
+  <si>
+    <t>CORDIAL/A-6431</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/WpgbyT2H/Whats-App-Image-2025-05-28-at-14-10-45-1.jpg</t>
+  </si>
+  <si>
+    <t>CORDIAL/A-6434 - 5----7 - 3PCS BOX - DENIM - 350</t>
+  </si>
+  <si>
+    <t>CORDIAL/A-6434</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/2SczW5wV/Whats-App-Image-2025-05-28-at-14-10-46.jpg</t>
+  </si>
+  <si>
+    <t>CORDIAL/A-6434 - 11----13 - 3PCS BOX - DENIM - 410</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/t4Cq76FK/Whats-App-Image-2025-05-28-at-14-10-46-1.jpg</t>
+  </si>
+  <si>
+    <t>CATTNOS/A-1039 - 24-36 - 3PCS BOX - COTTON - 150</t>
+  </si>
+  <si>
+    <t>CATTNOS/A-1039</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/SRhq4Yyt/Whats-App-Image-2025-05-28-at-14-10-47.jpg</t>
+  </si>
+  <si>
+    <t>CATTNOS/A-1033 - 24-36 - 3PCS BOX - COTTON - 145</t>
+  </si>
+  <si>
+    <t>CATTNOS/A-1033</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/02H54f6V/Whats-App-Image-2025-05-28-at-14-10-55.jpg</t>
+  </si>
+  <si>
+    <t>STELLER/A-2001 - 26-36 - 6PCS BOX - INTERLOCK - 270</t>
+  </si>
+  <si>
+    <t>STELLER/A-2001</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/VkrsPCnm/Whats-App-Image-2025-05-28-at-14-10-56.jpg</t>
+  </si>
+  <si>
+    <t>STELLER/A-2101 - 26-36 - 6PCS BOX - COTTON (JOGGERS) - 270</t>
+  </si>
+  <si>
+    <t>STELLER/A-2101</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/xdL0cV6Z/Whats-App-Image-2025-05-28-at-14-10-56-1.jpg</t>
+  </si>
+  <si>
+    <t>STELLER/A-2025 - 26-36 - 6PCS BOX - INTERLOCK - 280</t>
+  </si>
+  <si>
+    <t>STELLER/A-2025</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/tTy96vf4/Whats-App-Image-2025-05-28-at-14-10-57.jpg</t>
+  </si>
+  <si>
+    <t>STELLER/A-2002 - 26-36 - 6PCS BOX - INTERLOCK - 250</t>
+  </si>
+  <si>
+    <t>STELLER/A-2002</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/qvPJJvxn/Whats-App-Image-2025-05-28-at-14-10-57-1.jpg</t>
+  </si>
+  <si>
+    <t>STELLER/A-2103 - 26-36 - 6PCS BOX - COTTON ( STRAIGHT FIT) - 255</t>
+  </si>
+  <si>
+    <t>STELLER/A-2103</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Qx0tgDkK/Whats-App-Image-2025-05-28-at-14-56-30.jpg</t>
+  </si>
+  <si>
+    <t>FABU LOVE/A-41110 - 20-32 - 3PCS BOX - COTTON LYCRA - 245</t>
+  </si>
+  <si>
+    <t>FABU LOVE/A-41110</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/pLrdqSqG/Whats-App-Image-2025-05-28-at-14-56-30-1.jpg</t>
+  </si>
+  <si>
+    <t>FABU LOVE/A-41239 - 20-32 - 3PCS BOX - COTTON LYCRA - 295</t>
+  </si>
+  <si>
+    <t>FABU LOVE/A-41239</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/CLF5f5DV/Whats-App-Image-2025-05-28-at-14-56-31.jpg</t>
+  </si>
+  <si>
+    <t>FABU LOVE/A-41487 - 22-32 - 3PCS BOX - COTTON LYCRA - 325</t>
+  </si>
+  <si>
+    <t>FABU LOVE/A-41487</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/RC1qFKWR/Whats-App-Image-2025-05-28-at-14-56-31-1.jpg</t>
+  </si>
+  <si>
+    <t>FABU LOVE/A-41295 - 22-38 - 3PCS BOX - COTTON LYCRA - 421</t>
+  </si>
+  <si>
+    <t>FABU LOVE/A-41295</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/FH6Hqx69/Whats-App-Image-2025-05-28-at-14-56-32.jpg</t>
+  </si>
+  <si>
+    <t>FABU LOVE/A-41214 - 22-36 - 3PCS BOX - COTTON LYCRA - 390</t>
+  </si>
+  <si>
+    <t>FABU LOVE/A-41214</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/WbHDLjFL/Whats-App-Image-2025-05-28-at-14-56-33.jpg</t>
+  </si>
+  <si>
+    <t>PINK FOX/A-1155 - 22-32 - 3PCS BOX - COTTON - 278</t>
+  </si>
+  <si>
+    <t>PINK FOX/A-1155</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/RCG6dwv0/Whats-App-Image-2025-05-28-at-14-56-33-1.jpg</t>
+  </si>
+  <si>
+    <t>PINK FOX/A-1957 - 22-32 - 3PCS BOX - COTTON - 238</t>
+  </si>
+  <si>
+    <t>PINK FOX/A-1957</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/vHB1NDmt/Whats-App-Image-2025-05-28-at-14-56-33-2.jpg</t>
+  </si>
+  <si>
+    <t>PINK FOX/A-1918 - 22-36 - 3PCS BOX - COTTON - 253</t>
+  </si>
+  <si>
+    <t>PINK FOX/A-1918</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/3wMdNBFt/Whats-App-Image-2025-05-28-at-14-56-34.jpg</t>
+  </si>
+  <si>
+    <t>FABU LOVE/A-41275 - 22-38 - 3PCS BOX - COTTON LYCRA - 340</t>
+  </si>
+  <si>
+    <t>FABU LOVE/A-41275</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/wjR19PLt/Whats-App-Image-2025-05-28-at-14-56-36.jpg</t>
+  </si>
+  <si>
+    <t>PINK FOX/A-1784 - 22-36 - 3PCS BOX - TENCIL - 335</t>
+  </si>
+  <si>
+    <t>PINK FOX/A-1784</t>
+  </si>
+  <si>
+    <t>LOWER</t>
+  </si>
+  <si>
+    <t>CAPRI</t>
+  </si>
+  <si>
+    <t>NICKER</t>
+  </si>
+  <si>
+    <t>CORDSET</t>
   </si>
 </sst>
 </file>
@@ -595,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,69 +1183,548 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="2"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17">
+        <v>235</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" s="2"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18">
+        <v>565</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19" s="2"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19">
+        <v>310</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="2"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20">
+        <v>220</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="2"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21">
+        <v>225</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="2"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22">
+        <v>225</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="2"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23">
+        <v>200</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E24" s="2"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24">
+        <v>215</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E25" s="2"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25">
+        <v>195</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E26" s="2"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26">
+        <v>330</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E30" s="2"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27">
+        <v>180</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28">
+        <v>325</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29">
+        <v>350</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30">
+        <v>410</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E31" s="2"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31">
+        <v>150</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E32" s="2"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32">
+        <v>145</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="2"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33">
+        <v>270</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>99</v>
+      </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="2"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34">
+        <v>270</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
+      </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="2"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35">
+        <v>280</v>
+      </c>
+      <c r="D35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
       <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36">
+        <v>250</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37">
+        <v>255</v>
+      </c>
+      <c r="D37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38">
+        <v>245</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39">
+        <v>295</v>
+      </c>
+      <c r="D39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40">
+        <v>325</v>
+      </c>
+      <c r="D40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41">
+        <v>421</v>
+      </c>
+      <c r="D41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42">
+        <v>390</v>
+      </c>
+      <c r="D42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43">
+        <v>278</v>
+      </c>
+      <c r="D43" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44">
+        <v>238</v>
+      </c>
+      <c r="D44" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45">
+        <v>253</v>
+      </c>
+      <c r="D45" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46">
+        <v>340</v>
+      </c>
+      <c r="D46" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47">
+        <v>335</v>
+      </c>
+      <c r="D47" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/products.xlsx
+++ b/products.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PRODUCT UPLOAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DBC27E-E420-408B-9D1E-DE95EEA249C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEE750A-C4E5-4B65-AC03-39DEC9F7A072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14955" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="206">
   <si>
     <t>Category</t>
   </si>
@@ -191,299 +191,473 @@
     <t>https://i.postimg.cc/CLZ3Nd2D/Whats-App-Image-2025-05-27-at-17-06-30-1.jpg</t>
   </si>
   <si>
+    <t>IMAGE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>BRAND NAME</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>SIZE</t>
+  </si>
+  <si>
+    <t>BOX PACKING</t>
+  </si>
+  <si>
+    <t>FABRICS</t>
+  </si>
+  <si>
+    <t>RATE</t>
+  </si>
+  <si>
     <t>https://i.postimg.cc/dtG6DkJj/Whats-App-Image-2025-05-28-at-14-10-40.jpg</t>
   </si>
   <si>
+    <t>https://i.postimg.cc/KckJSpVV/Whats-App-Image-2025-05-28-at-14-10-40-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/wMmVX3LH/Whats-App-Image-2025-05-28-at-14-10-41.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/YCk3Fr9K/Whats-App-Image-2025-05-28-at-14-10-41-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/xCkyQqsH/Whats-App-Image-2025-05-28-at-14-10-42.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/GpgJ6vjd/Whats-App-Image-2025-05-28-at-14-10-42-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Nf88B3xN/Whats-App-Image-2025-05-28-at-14-10-43.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/xCWG1Y7Z/Whats-App-Image-2025-05-28-at-14-10-43-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/ryrCY0R2/Whats-App-Image-2025-05-28-at-14-10-43-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/KYCx9sCb/Whats-App-Image-2025-05-28-at-14-10-44.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Wb7p28qm/Whats-App-Image-2025-05-28-at-14-10-44-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/NftfqSFf/Whats-App-Image-2025-05-28-at-14-10-45.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/WpgbyT2H/Whats-App-Image-2025-05-28-at-14-10-45-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/2SczW5wV/Whats-App-Image-2025-05-28-at-14-10-46.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/t4Cq76FK/Whats-App-Image-2025-05-28-at-14-10-46-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/SRhq4Yyt/Whats-App-Image-2025-05-28-at-14-10-47.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/02H54f6V/Whats-App-Image-2025-05-28-at-14-10-55.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/VkrsPCnm/Whats-App-Image-2025-05-28-at-14-10-56.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/xdL0cV6Z/Whats-App-Image-2025-05-28-at-14-10-56-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/tTy96vf4/Whats-App-Image-2025-05-28-at-14-10-57.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/qvPJJvxn/Whats-App-Image-2025-05-28-at-14-10-57-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Qx0tgDkK/Whats-App-Image-2025-05-28-at-14-56-30.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/pLrdqSqG/Whats-App-Image-2025-05-28-at-14-56-30-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/CLF5f5DV/Whats-App-Image-2025-05-28-at-14-56-31.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/RC1qFKWR/Whats-App-Image-2025-05-28-at-14-56-31-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/FH6Hqx69/Whats-App-Image-2025-05-28-at-14-56-32.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/WbHDLjFL/Whats-App-Image-2025-05-28-at-14-56-33.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/RCG6dwv0/Whats-App-Image-2025-05-28-at-14-56-33-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/vHB1NDmt/Whats-App-Image-2025-05-28-at-14-56-33-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/3wMdNBFt/Whats-App-Image-2025-05-28-at-14-56-34.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/wjR19PLt/Whats-App-Image-2025-05-28-at-14-56-36.jpg</t>
+  </si>
+  <si>
+    <t>CRISPY - 24-16 - 3PCS BOX - COTTON - 301</t>
+  </si>
+  <si>
+    <t>CRISPY - 24-17 - 3PCS BOX - COTTON - 302</t>
+  </si>
+  <si>
+    <t>CRISPY - 24-18 - 3PCS BOX - COTTON - 303</t>
+  </si>
+  <si>
+    <t>CRISPY - 24-19 - 3PCS BOX - COTTON - 304</t>
+  </si>
+  <si>
+    <t>CRISPY - 24-20 - 3PCS BOX - COTTON - 305</t>
+  </si>
+  <si>
+    <t>CRISPY - 24-21 - 3PCS BOX - COTTON - 306</t>
+  </si>
+  <si>
+    <t>CRISPY - 24-22 - 3PCS BOX - COTTON - 307</t>
+  </si>
+  <si>
+    <t>CRISPY - 24-23 - 3PCS BOX - COTTON - 308</t>
+  </si>
+  <si>
+    <t>CRISPY - 24-24 - 3PCS BOX - COTTON - 309</t>
+  </si>
+  <si>
+    <t>CRISPY - 24-25 - 3PCS BOX - COTTON - 310</t>
+  </si>
+  <si>
+    <t>VEER - 24-26 - 3PCS BOX - COTTON - 311</t>
+  </si>
+  <si>
+    <t>VEER - 24-26 - 3PCS BOX - WASHING - 344</t>
+  </si>
+  <si>
+    <t>VEER - 24-26 - 3PCS BOX - COTTON - 294</t>
+  </si>
+  <si>
+    <t>BEN 10 - 20 - 3PCS BOX - COTTON - 78</t>
+  </si>
+  <si>
+    <t>BEN 10 - 20 - 3PCS BOX - COTTON - 89</t>
+  </si>
+  <si>
     <t>UNDER 19 - 32-38 - 3PCS BOX - NS LYCRA - 235</t>
   </si>
   <si>
+    <t>RICH BOND/A-3281 - 24-38 - 3PCS BOX - WASHING - 565</t>
+  </si>
+  <si>
+    <t>RICH BOND/A-219 - 24-38 - 3PCS BOX - JORDEN CRUSH - 310</t>
+  </si>
+  <si>
+    <t>RELAX WEAR/A-173 - 30-36 - 3PCS BOX - PC/COTTON - 220</t>
+  </si>
+  <si>
+    <t>RETRO/A-715 - 24-38 - 3PCS BOX - COTTON - 225</t>
+  </si>
+  <si>
+    <t>RETRO/A-712 - 24-28 - 3PCS BOX - COTTON - 225</t>
+  </si>
+  <si>
+    <t>CATTNOS/A-2002 - 24-36 - 6PCS BOX - PC/COTTON - 200</t>
+  </si>
+  <si>
+    <t>CATTNOS/A-2001 - 30-36 - 6PCS BOX - PC/COTTON - 215</t>
+  </si>
+  <si>
+    <t>CATTNOS/A-2007 - 24-36 - 6PCS BOX - PC/COTTON - 195</t>
+  </si>
+  <si>
+    <t>RELAX WEAR/A-3301 - 26-36 - 3PCS BOX - DENIM - 330</t>
+  </si>
+  <si>
+    <t>RETRO/A-203 - 24-38 - 3PCS BOX - COTTON - 180</t>
+  </si>
+  <si>
+    <t>CORDIAL/A-6431 - 5----7 - 3PCS BOX - DENIM - 325</t>
+  </si>
+  <si>
+    <t>CORDIAL/A-6434 - 5----7 - 3PCS BOX - DENIM - 350</t>
+  </si>
+  <si>
+    <t>CORDIAL/A-6434 - 11----13 - 3PCS BOX - DENIM - 410</t>
+  </si>
+  <si>
+    <t>CATTNOS/A-1039 - 24-36 - 3PCS BOX - COTTON - 150</t>
+  </si>
+  <si>
+    <t>CATTNOS/A-1033 - 24-36 - 3PCS BOX - COTTON - 145</t>
+  </si>
+  <si>
+    <t>STELLER/A-2001 - 26-36 - 6PCS BOX - INTERLOCK - 270</t>
+  </si>
+  <si>
+    <t>STELLER/A-2101 - 26-36 - 6PCS BOX - COTTON (JOGGERS) - 270</t>
+  </si>
+  <si>
+    <t>STELLER/A-2025 - 26-36 - 6PCS BOX - INTERLOCK - 280</t>
+  </si>
+  <si>
+    <t>STELLER/A-2002 - 26-36 - 6PCS BOX - INTERLOCK - 250</t>
+  </si>
+  <si>
+    <t>STELLER/A-2103 - 26-36 - 6PCS BOX - COTTON ( STRAIGHT FIT) - 255</t>
+  </si>
+  <si>
+    <t>FABU LOVE/A-41110 - 20-32 - 3PCS BOX - COTTON LYCRA - 245</t>
+  </si>
+  <si>
+    <t>FABU LOVE/A-41239 - 20-32 - 3PCS BOX - COTTON LYCRA - 295</t>
+  </si>
+  <si>
+    <t>FABU LOVE/A-41487 - 22-32 - 3PCS BOX - COTTON LYCRA - 325</t>
+  </si>
+  <si>
+    <t>FABU LOVE/A-41295 - 22-38 - 3PCS BOX - COTTON LYCRA - 421</t>
+  </si>
+  <si>
+    <t>FABU LOVE/A-41214 - 22-36 - 3PCS BOX - COTTON LYCRA - 390</t>
+  </si>
+  <si>
+    <t>PINK FOX/A-1155 - 22-32 - 3PCS BOX - COTTON - 278</t>
+  </si>
+  <si>
+    <t>PINK FOX/A-1957 - 22-32 - 3PCS BOX - COTTON - 238</t>
+  </si>
+  <si>
+    <t>PINK FOX/A-1918 - 22-36 - 3PCS BOX - COTTON - 253</t>
+  </si>
+  <si>
+    <t>FABU LOVE/A-41275 - 22-38 - 3PCS BOX - COTTON LYCRA - 340</t>
+  </si>
+  <si>
+    <t>PINK FOX/A-1784 - 22-36 - 3PCS BOX - TENCIL - 335</t>
+  </si>
+  <si>
+    <t>CRISPY</t>
+  </si>
+  <si>
+    <t>VEER</t>
+  </si>
+  <si>
+    <t>BEN 10</t>
+  </si>
+  <si>
     <t>UNDER 19</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/KckJSpVV/Whats-App-Image-2025-05-28-at-14-10-40-1.jpg</t>
-  </si>
-  <si>
-    <t>RICH BOND/A-3281 - 24-38 - 3PCS BOX - WASHING - 565</t>
-  </si>
-  <si>
     <t>RICH BOND/A-3281</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/wMmVX3LH/Whats-App-Image-2025-05-28-at-14-10-41.jpg</t>
-  </si>
-  <si>
-    <t>RICH BOND/A-219 - 24-38 - 3PCS BOX - JORDEN CRUSH - 310</t>
-  </si>
-  <si>
     <t>RICH BOND/A-219</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/YCk3Fr9K/Whats-App-Image-2025-05-28-at-14-10-41-1.jpg</t>
-  </si>
-  <si>
-    <t>RELAX WEAR/A-173 - 30-36 - 3PCS BOX - PC/COTTON - 220</t>
-  </si>
-  <si>
     <t>RELAX WEAR/A-173</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/xCkyQqsH/Whats-App-Image-2025-05-28-at-14-10-42.jpg</t>
-  </si>
-  <si>
-    <t>RETRO/A-715 - 24-38 - 3PCS BOX - COTTON - 225</t>
-  </si>
-  <si>
     <t>RETRO/A-715</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/GpgJ6vjd/Whats-App-Image-2025-05-28-at-14-10-42-1.jpg</t>
-  </si>
-  <si>
-    <t>RETRO/A-712 - 24-28 - 3PCS BOX - COTTON - 225</t>
-  </si>
-  <si>
     <t>RETRO/A-712</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/Nf88B3xN/Whats-App-Image-2025-05-28-at-14-10-43.jpg</t>
-  </si>
-  <si>
-    <t>CATTNOS/A-2002 - 24-36 - 6PCS BOX - PC/COTTON - 200</t>
-  </si>
-  <si>
     <t>CATTNOS/A-2002</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/xCWG1Y7Z/Whats-App-Image-2025-05-28-at-14-10-43-1.jpg</t>
-  </si>
-  <si>
-    <t>CATTNOS/A-2001 - 30-36 - 6PCS BOX - PC/COTTON - 215</t>
-  </si>
-  <si>
     <t>CATTNOS/A-2001</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/ryrCY0R2/Whats-App-Image-2025-05-28-at-14-10-43-2.jpg</t>
-  </si>
-  <si>
-    <t>CATTNOS/A-2007 - 24-36 - 6PCS BOX - PC/COTTON - 195</t>
-  </si>
-  <si>
     <t>CATTNOS/A-2007</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/KYCx9sCb/Whats-App-Image-2025-05-28-at-14-10-44.jpg</t>
-  </si>
-  <si>
-    <t>RELAX WEAR/A-3301 - 26-36 - 3PCS BOX - DENIM - 330</t>
-  </si>
-  <si>
     <t>RELAX WEAR/A-3301</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/Wb7p28qm/Whats-App-Image-2025-05-28-at-14-10-44-1.jpg</t>
-  </si>
-  <si>
-    <t>RETRO/A-203 - 24-38 - 3PCS BOX - COTTON - 180</t>
-  </si>
-  <si>
     <t>RETRO/A-203</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/NftfqSFf/Whats-App-Image-2025-05-28-at-14-10-45.jpg</t>
-  </si>
-  <si>
-    <t>CORDIAL/A-6431 - 5----7 - 3PCS BOX - DENIM - 325</t>
-  </si>
-  <si>
     <t>CORDIAL/A-6431</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/WpgbyT2H/Whats-App-Image-2025-05-28-at-14-10-45-1.jpg</t>
-  </si>
-  <si>
-    <t>CORDIAL/A-6434 - 5----7 - 3PCS BOX - DENIM - 350</t>
-  </si>
-  <si>
     <t>CORDIAL/A-6434</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/2SczW5wV/Whats-App-Image-2025-05-28-at-14-10-46.jpg</t>
-  </si>
-  <si>
-    <t>CORDIAL/A-6434 - 11----13 - 3PCS BOX - DENIM - 410</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/t4Cq76FK/Whats-App-Image-2025-05-28-at-14-10-46-1.jpg</t>
-  </si>
-  <si>
-    <t>CATTNOS/A-1039 - 24-36 - 3PCS BOX - COTTON - 150</t>
-  </si>
-  <si>
     <t>CATTNOS/A-1039</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/SRhq4Yyt/Whats-App-Image-2025-05-28-at-14-10-47.jpg</t>
-  </si>
-  <si>
-    <t>CATTNOS/A-1033 - 24-36 - 3PCS BOX - COTTON - 145</t>
-  </si>
-  <si>
     <t>CATTNOS/A-1033</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/02H54f6V/Whats-App-Image-2025-05-28-at-14-10-55.jpg</t>
-  </si>
-  <si>
-    <t>STELLER/A-2001 - 26-36 - 6PCS BOX - INTERLOCK - 270</t>
-  </si>
-  <si>
     <t>STELLER/A-2001</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/VkrsPCnm/Whats-App-Image-2025-05-28-at-14-10-56.jpg</t>
-  </si>
-  <si>
-    <t>STELLER/A-2101 - 26-36 - 6PCS BOX - COTTON (JOGGERS) - 270</t>
-  </si>
-  <si>
     <t>STELLER/A-2101</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/xdL0cV6Z/Whats-App-Image-2025-05-28-at-14-10-56-1.jpg</t>
-  </si>
-  <si>
-    <t>STELLER/A-2025 - 26-36 - 6PCS BOX - INTERLOCK - 280</t>
-  </si>
-  <si>
     <t>STELLER/A-2025</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/tTy96vf4/Whats-App-Image-2025-05-28-at-14-10-57.jpg</t>
-  </si>
-  <si>
-    <t>STELLER/A-2002 - 26-36 - 6PCS BOX - INTERLOCK - 250</t>
-  </si>
-  <si>
     <t>STELLER/A-2002</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/qvPJJvxn/Whats-App-Image-2025-05-28-at-14-10-57-1.jpg</t>
-  </si>
-  <si>
-    <t>STELLER/A-2103 - 26-36 - 6PCS BOX - COTTON ( STRAIGHT FIT) - 255</t>
-  </si>
-  <si>
     <t>STELLER/A-2103</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/Qx0tgDkK/Whats-App-Image-2025-05-28-at-14-56-30.jpg</t>
-  </si>
-  <si>
-    <t>FABU LOVE/A-41110 - 20-32 - 3PCS BOX - COTTON LYCRA - 245</t>
-  </si>
-  <si>
     <t>FABU LOVE/A-41110</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/pLrdqSqG/Whats-App-Image-2025-05-28-at-14-56-30-1.jpg</t>
-  </si>
-  <si>
-    <t>FABU LOVE/A-41239 - 20-32 - 3PCS BOX - COTTON LYCRA - 295</t>
-  </si>
-  <si>
     <t>FABU LOVE/A-41239</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/CLF5f5DV/Whats-App-Image-2025-05-28-at-14-56-31.jpg</t>
-  </si>
-  <si>
-    <t>FABU LOVE/A-41487 - 22-32 - 3PCS BOX - COTTON LYCRA - 325</t>
-  </si>
-  <si>
     <t>FABU LOVE/A-41487</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/RC1qFKWR/Whats-App-Image-2025-05-28-at-14-56-31-1.jpg</t>
-  </si>
-  <si>
-    <t>FABU LOVE/A-41295 - 22-38 - 3PCS BOX - COTTON LYCRA - 421</t>
-  </si>
-  <si>
     <t>FABU LOVE/A-41295</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/FH6Hqx69/Whats-App-Image-2025-05-28-at-14-56-32.jpg</t>
-  </si>
-  <si>
-    <t>FABU LOVE/A-41214 - 22-36 - 3PCS BOX - COTTON LYCRA - 390</t>
-  </si>
-  <si>
     <t>FABU LOVE/A-41214</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/WbHDLjFL/Whats-App-Image-2025-05-28-at-14-56-33.jpg</t>
-  </si>
-  <si>
-    <t>PINK FOX/A-1155 - 22-32 - 3PCS BOX - COTTON - 278</t>
-  </si>
-  <si>
     <t>PINK FOX/A-1155</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/RCG6dwv0/Whats-App-Image-2025-05-28-at-14-56-33-1.jpg</t>
-  </si>
-  <si>
-    <t>PINK FOX/A-1957 - 22-32 - 3PCS BOX - COTTON - 238</t>
-  </si>
-  <si>
     <t>PINK FOX/A-1957</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/vHB1NDmt/Whats-App-Image-2025-05-28-at-14-56-33-2.jpg</t>
-  </si>
-  <si>
-    <t>PINK FOX/A-1918 - 22-36 - 3PCS BOX - COTTON - 253</t>
-  </si>
-  <si>
     <t>PINK FOX/A-1918</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/3wMdNBFt/Whats-App-Image-2025-05-28-at-14-56-34.jpg</t>
-  </si>
-  <si>
-    <t>FABU LOVE/A-41275 - 22-38 - 3PCS BOX - COTTON LYCRA - 340</t>
-  </si>
-  <si>
     <t>FABU LOVE/A-41275</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/wjR19PLt/Whats-App-Image-2025-05-28-at-14-56-36.jpg</t>
-  </si>
-  <si>
-    <t>PINK FOX/A-1784 - 22-36 - 3PCS BOX - TENCIL - 335</t>
-  </si>
-  <si>
     <t>PINK FOX/A-1784</t>
   </si>
   <si>
-    <t>LOWER</t>
-  </si>
-  <si>
-    <t>CAPRI</t>
-  </si>
-  <si>
-    <t>NICKER</t>
-  </si>
-  <si>
-    <t>CORDSET</t>
+    <t>24-16</t>
+  </si>
+  <si>
+    <t>24-17</t>
+  </si>
+  <si>
+    <t>24-18</t>
+  </si>
+  <si>
+    <t>24-19</t>
+  </si>
+  <si>
+    <t>24-20</t>
+  </si>
+  <si>
+    <t>24-21</t>
+  </si>
+  <si>
+    <t>24-22</t>
+  </si>
+  <si>
+    <t>24-23</t>
+  </si>
+  <si>
+    <t>24-24</t>
+  </si>
+  <si>
+    <t>24-25</t>
+  </si>
+  <si>
+    <t>24-26</t>
+  </si>
+  <si>
+    <t>32-38</t>
+  </si>
+  <si>
+    <t>24-38</t>
+  </si>
+  <si>
+    <t>30-36</t>
+  </si>
+  <si>
+    <t>24-28</t>
+  </si>
+  <si>
+    <t>24-36</t>
+  </si>
+  <si>
+    <t>26-36</t>
+  </si>
+  <si>
+    <t>5----7</t>
+  </si>
+  <si>
+    <t>11----13</t>
+  </si>
+  <si>
+    <t>20-32</t>
+  </si>
+  <si>
+    <t>22-32</t>
+  </si>
+  <si>
+    <t>22-38</t>
+  </si>
+  <si>
+    <t>22-36</t>
+  </si>
+  <si>
+    <t>3PCS BOX</t>
+  </si>
+  <si>
+    <t>6PCS BOX</t>
+  </si>
+  <si>
+    <t>COTTON</t>
+  </si>
+  <si>
+    <t>WASHING</t>
+  </si>
+  <si>
+    <t>NS LYCRA</t>
+  </si>
+  <si>
+    <t>JORDEN CRUSH</t>
+  </si>
+  <si>
+    <t>PC/COTTON</t>
+  </si>
+  <si>
+    <t>DENIM</t>
+  </si>
+  <si>
+    <t>INTERLOCK</t>
+  </si>
+  <si>
+    <t>COTTON (JOGGERS)</t>
+  </si>
+  <si>
+    <t>COTTON ( STRAIGHT FIT)</t>
+  </si>
+  <si>
+    <t>COTTON LYCRA</t>
+  </si>
+  <si>
+    <t>TENCIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +679,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -565,7 +747,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -578,6 +760,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -883,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B47"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,548 +1372,69 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17">
-        <v>235</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>52</v>
-      </c>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18">
-        <v>565</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19">
-        <v>310</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20">
-        <v>220</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21">
-        <v>225</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22">
-        <v>225</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" t="s">
-        <v>67</v>
-      </c>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23">
-        <v>200</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" t="s">
-        <v>70</v>
-      </c>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24">
-        <v>215</v>
-      </c>
-      <c r="D24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" t="s">
-        <v>73</v>
-      </c>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25">
-        <v>195</v>
-      </c>
-      <c r="D25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26">
-        <v>330</v>
-      </c>
-      <c r="D26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" t="s">
-        <v>79</v>
-      </c>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27">
-        <v>180</v>
-      </c>
-      <c r="D27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28">
-        <v>325</v>
-      </c>
-      <c r="D28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C29">
-        <v>350</v>
-      </c>
-      <c r="D29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30">
-        <v>410</v>
-      </c>
-      <c r="D30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" t="s">
-        <v>91</v>
-      </c>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31">
-        <v>150</v>
-      </c>
-      <c r="D31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" t="s">
-        <v>93</v>
-      </c>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32">
-        <v>145</v>
-      </c>
-      <c r="D32" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" t="s">
-        <v>96</v>
-      </c>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33">
-        <v>270</v>
-      </c>
-      <c r="D33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" t="s">
-        <v>99</v>
-      </c>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34">
-        <v>270</v>
-      </c>
-      <c r="D34" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" t="s">
-        <v>102</v>
-      </c>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35">
-        <v>280</v>
-      </c>
-      <c r="D35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" t="s">
-        <v>105</v>
-      </c>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36">
-        <v>250</v>
-      </c>
-      <c r="D36" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37">
-        <v>255</v>
-      </c>
-      <c r="D37" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38">
-        <v>245</v>
-      </c>
-      <c r="D38" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39">
-        <v>295</v>
-      </c>
-      <c r="D39" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40">
-        <v>325</v>
-      </c>
-      <c r="D40" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41">
-        <v>421</v>
-      </c>
-      <c r="D41" t="s">
-        <v>124</v>
-      </c>
-      <c r="E41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42">
-        <v>390</v>
-      </c>
-      <c r="D42" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>131</v>
-      </c>
-      <c r="B43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43">
-        <v>278</v>
-      </c>
-      <c r="D43" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" t="s">
-        <v>147</v>
-      </c>
-      <c r="C44">
-        <v>238</v>
-      </c>
-      <c r="D44" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45">
-        <v>253</v>
-      </c>
-      <c r="D45" t="s">
-        <v>136</v>
-      </c>
-      <c r="E45" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>140</v>
-      </c>
-      <c r="B46" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46">
-        <v>340</v>
-      </c>
-      <c r="D46" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47">
-        <v>335</v>
-      </c>
-      <c r="D47" t="s">
-        <v>142</v>
-      </c>
-      <c r="E47" t="s">
-        <v>141</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1735,4 +1445,1112 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AAAB3D-5E46-40BF-8D92-4C265B02673A}">
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" t="s">
+        <v>195</v>
+      </c>
+      <c r="H16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" t="s">
+        <v>197</v>
+      </c>
+      <c r="H17">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" t="s">
+        <v>196</v>
+      </c>
+      <c r="H18">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" t="s">
+        <v>198</v>
+      </c>
+      <c r="H19">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" t="s">
+        <v>199</v>
+      </c>
+      <c r="H20">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H21">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H22">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" t="s">
+        <v>199</v>
+      </c>
+      <c r="H24">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" t="s">
+        <v>199</v>
+      </c>
+      <c r="H25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H26">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H28">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" t="s">
+        <v>200</v>
+      </c>
+      <c r="H29">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" t="s">
+        <v>200</v>
+      </c>
+      <c r="H30">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H31">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" t="s">
+        <v>195</v>
+      </c>
+      <c r="H32">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" t="s">
+        <v>201</v>
+      </c>
+      <c r="H33">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" t="s">
+        <v>202</v>
+      </c>
+      <c r="H34">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" t="s">
+        <v>201</v>
+      </c>
+      <c r="H35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" t="s">
+        <v>201</v>
+      </c>
+      <c r="H36">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37" t="s">
+        <v>203</v>
+      </c>
+      <c r="H37">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" t="s">
+        <v>189</v>
+      </c>
+      <c r="F38" t="s">
+        <v>193</v>
+      </c>
+      <c r="G38" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F39" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" t="s">
+        <v>204</v>
+      </c>
+      <c r="H39">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" t="s">
+        <v>193</v>
+      </c>
+      <c r="G40" t="s">
+        <v>204</v>
+      </c>
+      <c r="H40">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41" t="s">
+        <v>193</v>
+      </c>
+      <c r="G41" t="s">
+        <v>204</v>
+      </c>
+      <c r="H41">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" t="s">
+        <v>192</v>
+      </c>
+      <c r="F42" t="s">
+        <v>193</v>
+      </c>
+      <c r="G42" t="s">
+        <v>204</v>
+      </c>
+      <c r="H42">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" t="s">
+        <v>190</v>
+      </c>
+      <c r="F43" t="s">
+        <v>193</v>
+      </c>
+      <c r="G43" t="s">
+        <v>195</v>
+      </c>
+      <c r="H43">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" t="s">
+        <v>190</v>
+      </c>
+      <c r="F44" t="s">
+        <v>193</v>
+      </c>
+      <c r="G44" t="s">
+        <v>195</v>
+      </c>
+      <c r="H44">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45" t="s">
+        <v>195</v>
+      </c>
+      <c r="H45">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" t="s">
+        <v>193</v>
+      </c>
+      <c r="G46" t="s">
+        <v>204</v>
+      </c>
+      <c r="H46">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" t="s">
+        <v>192</v>
+      </c>
+      <c r="F47" t="s">
+        <v>193</v>
+      </c>
+      <c r="G47" t="s">
+        <v>205</v>
+      </c>
+      <c r="H47">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/products.xlsx
+++ b/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PRODUCT UPLOAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3C3A14-897C-4C0C-AD0E-AB9CD7956085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFB6A33-0729-48E4-AE8C-BE659D92B11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="197">
   <si>
     <t>Category</t>
   </si>
@@ -479,55 +479,151 @@
     <t>CORDSET</t>
   </si>
   <si>
+    <t>VEER/A-38510 - 22-26 - 3PCS BOX - PC/COTTON - 400</t>
+  </si>
+  <si>
+    <t>CARELINE/A-4153 - 22-26 - 3PCS BOX - PC/COTTON - 325</t>
+  </si>
+  <si>
+    <t>BENTLY/A-2175/4 - 22-26 - 3PCS BOX - PC/COTTON - 319</t>
+  </si>
+  <si>
+    <t>KIDSTYLE/A-3066 - 22-26 - 3PCS BOX - PC/COTTON - 345</t>
+  </si>
+  <si>
+    <t>BARRONBOY'S/A-7223 - 22-26 - 3PCS BOX - PC/COTTON - 360</t>
+  </si>
+  <si>
+    <t>BARRONBOY'S/A-3306 - 18 - 3PCS BOX - PC/COTTON - 180</t>
+  </si>
+  <si>
+    <t>CARELINE/A-4191 - 22-26 - 3PCS BOX - PC/COTTON - 315</t>
+  </si>
+  <si>
+    <t>HEY DUDE(CAL)/A-1321 - 0.1.2 - 3PCS BOX - PC/COTTON - 288</t>
+  </si>
+  <si>
+    <t>KIDSTYLE/A-3069 - 22-26 - 3PCS BOX - PC/COTTON - 345</t>
+  </si>
+  <si>
+    <t>TOP GEAR/A-3322 - 22/26 - 3PCS BOX - PC/COTTON - 369</t>
+  </si>
+  <si>
+    <t>HELLO KITTY/A-1380 - 0.1.2. - 3PCS BOX - PC/COTTON - 230</t>
+  </si>
+  <si>
+    <t>BARRONBOY'S/A-8680 - 28/32 - 3PCS BOX - PC/COTTON - 396</t>
+  </si>
+  <si>
+    <t>B.M /A-3621 - 20 - 3PCS BOX - PC/COTTON - 220</t>
+  </si>
+  <si>
+    <t>VEER/A-83113 - 22-26 - 3PCS BOX - PC/COTTON - 438</t>
+  </si>
+  <si>
+    <t>HEY DUDE(CAL)/A-1386 - 0.1.2 - 3PCS BOX - PC/COTTON - 246</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/DzSpdRmP/Whats-App-Image-2025-05-28-at-15-45-04-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Y9gXTg64/Whats-App-Image-2025-05-28-at-15-45-05.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/prH0vTCs/Whats-App-Image-2025-05-28-at-15-45-05-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/6p3MtFVx/Whats-App-Image-2025-05-28-at-15-45-06.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/1Xrv3QYs/Whats-App-Image-2025-05-28-at-15-45-06-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/5NfPkX60/Whats-App-Image-2025-05-28-at-15-45-06-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Gm5q2zz8/Whats-App-Image-2025-05-28-at-15-45-07.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/3J9LM3vZ/Whats-App-Image-2025-05-28-at-15-45-07-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/pTNCQTwP/Whats-App-Image-2025-05-28-at-15-45-08.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/yxsT5G65/Whats-App-Image-2025-05-28-at-15-45-09.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/FRjZTvv3/Whats-App-Image-2025-05-28-at-15-45-11.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Kjf5y5RY/Whats-App-Image-2025-05-28-at-15-45-12-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/GhMj7zW7/Whats-App-Image-2025-05-28-at-15-45-13.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/J75xJRPW/Whats-App-Image-2025-05-28-at-15-45-13-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/BnXBdHsq/Whats-App-Image-2025-05-28-at-15-45-14.jpg</t>
+  </si>
+  <si>
+    <t>NICKER SUIT</t>
+  </si>
+  <si>
+    <t>TEXTILE SUIT</t>
+  </si>
+  <si>
+    <t>CORD-SET</t>
+  </si>
+  <si>
+    <t>DANGRI SUIT</t>
+  </si>
+  <si>
+    <t>VEER/A-38510</t>
+  </si>
+  <si>
+    <t>CARELINE/A-4153</t>
+  </si>
+  <si>
+    <t>BENTLY/A-2175/4</t>
+  </si>
+  <si>
+    <t>KIDSTYLE/A-3066</t>
+  </si>
+  <si>
+    <t>BARRONBOY'S/A-7223</t>
+  </si>
+  <si>
+    <t>BARRONBOY'S/A-3306</t>
+  </si>
+  <si>
+    <t>CARELINE/A-4191</t>
+  </si>
+  <si>
+    <t>HEY DUDE(CAL)/A-1321</t>
+  </si>
+  <si>
+    <t>KIDSTYLE/A-3069</t>
+  </si>
+  <si>
+    <t>TOP GEAR/A-3322</t>
+  </si>
+  <si>
     <t>HELLO KITTY/A-1380</t>
   </si>
   <si>
-    <t>DANGRI SUIT</t>
-  </si>
-  <si>
-    <t>HELLO KITTY/A-1380 - 0.1.2 - 3PCS BOX - PC/COTTON - 230</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/nhRwmnVL/Whats-App-Image-2025-05-28-at-15-45-01.jpg</t>
-  </si>
-  <si>
-    <t>HELLO KITTY/A-1379</t>
-  </si>
-  <si>
-    <t>HELLO KITTY/A-1379 - 0.1.2. - 3PCS BOX - PC/COTTON - 271</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/vHvKQWpf/Whats-App-Image-2025-05-28-at-15-45-02.jpg</t>
-  </si>
-  <si>
-    <t>RETRO/A-39509</t>
-  </si>
-  <si>
-    <t>NICKER SUIT</t>
-  </si>
-  <si>
-    <t>RETRO/A-39509 - 20 - 3PCS BOX - PC/COTTON - 122</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/ZYpgQkHf/Whats-App-Image-2025-05-28-at-15-45-02-1.jpg</t>
-  </si>
-  <si>
-    <t>GEOMETRY/A-4002</t>
-  </si>
-  <si>
-    <t>GEOMETRY/A-4002 - 22-26 - 3PCS BOX - PC/COTTON - 366</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/vHyjFPSG/Whats-App-Image-2025-05-28-at-15-45-03.jpg</t>
-  </si>
-  <si>
-    <t>SIMPLE/A-1771</t>
-  </si>
-  <si>
-    <t>SIMPLE/A-1771 - 0.1.2 - 3PCS BOX - PC/COTTON - 261</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/s2b6nKhd/Whats-App-Image-2025-05-28-at-15-45-04.jpg</t>
+    <t>BARRONBOY'S/A-8680</t>
+  </si>
+  <si>
+    <t>B.M /A-3621</t>
+  </si>
+  <si>
+    <t>VEER/A-83113</t>
+  </si>
+  <si>
+    <t>HEY DUDE(CAL)/A-1386</t>
   </si>
 </sst>
 </file>
@@ -616,7 +712,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -629,6 +725,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -934,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:E52"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,7 +1340,7 @@
       <c r="B17" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>235</v>
       </c>
       <c r="D17" t="s">
@@ -1259,7 +1358,7 @@
       <c r="B18" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>565</v>
       </c>
       <c r="D18" t="s">
@@ -1277,7 +1376,7 @@
       <c r="B19" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>310</v>
       </c>
       <c r="D19" t="s">
@@ -1295,7 +1394,7 @@
       <c r="B20" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>220</v>
       </c>
       <c r="D20" t="s">
@@ -1313,7 +1412,7 @@
       <c r="B21" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>225</v>
       </c>
       <c r="D21" t="s">
@@ -1331,7 +1430,7 @@
       <c r="B22" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>225</v>
       </c>
       <c r="D22" t="s">
@@ -1349,7 +1448,7 @@
       <c r="B23" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>200</v>
       </c>
       <c r="D23" t="s">
@@ -1367,7 +1466,7 @@
       <c r="B24" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>215</v>
       </c>
       <c r="D24" t="s">
@@ -1385,7 +1484,7 @@
       <c r="B25" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>195</v>
       </c>
       <c r="D25" t="s">
@@ -1403,7 +1502,7 @@
       <c r="B26" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>330</v>
       </c>
       <c r="D26" t="s">
@@ -1421,7 +1520,7 @@
       <c r="B27" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>180</v>
       </c>
       <c r="D27" t="s">
@@ -1438,7 +1537,7 @@
       <c r="B28" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>325</v>
       </c>
       <c r="D28" t="s">
@@ -1455,7 +1554,7 @@
       <c r="B29" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>350</v>
       </c>
       <c r="D29" t="s">
@@ -1472,7 +1571,7 @@
       <c r="B30" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>410</v>
       </c>
       <c r="D30" t="s">
@@ -1490,7 +1589,7 @@
       <c r="B31" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>150</v>
       </c>
       <c r="D31" t="s">
@@ -1508,7 +1607,7 @@
       <c r="B32" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>145</v>
       </c>
       <c r="D32" t="s">
@@ -1526,7 +1625,7 @@
       <c r="B33" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <v>270</v>
       </c>
       <c r="D33" t="s">
@@ -1544,7 +1643,7 @@
       <c r="B34" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>270</v>
       </c>
       <c r="D34" t="s">
@@ -1562,7 +1661,7 @@
       <c r="B35" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
         <v>280</v>
       </c>
       <c r="D35" t="s">
@@ -1580,7 +1679,7 @@
       <c r="B36" t="s">
         <v>144</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <v>250</v>
       </c>
       <c r="D36" t="s">
@@ -1597,7 +1696,7 @@
       <c r="B37" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
         <v>255</v>
       </c>
       <c r="D37" t="s">
@@ -1614,7 +1713,7 @@
       <c r="B38" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38">
         <v>245</v>
       </c>
       <c r="D38" t="s">
@@ -1631,7 +1730,7 @@
       <c r="B39" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39">
         <v>295</v>
       </c>
       <c r="D39" t="s">
@@ -1648,7 +1747,7 @@
       <c r="B40" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <v>325</v>
       </c>
       <c r="D40" t="s">
@@ -1665,7 +1764,7 @@
       <c r="B41" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41">
         <v>421</v>
       </c>
       <c r="D41" t="s">
@@ -1682,7 +1781,7 @@
       <c r="B42" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>390</v>
       </c>
       <c r="D42" t="s">
@@ -1699,7 +1798,7 @@
       <c r="B43" t="s">
         <v>147</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43">
         <v>278</v>
       </c>
       <c r="D43" t="s">
@@ -1716,7 +1815,7 @@
       <c r="B44" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44">
         <v>238</v>
       </c>
       <c r="D44" t="s">
@@ -1733,7 +1832,7 @@
       <c r="B45" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45">
         <v>253</v>
       </c>
       <c r="D45" t="s">
@@ -1750,7 +1849,7 @@
       <c r="B46" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46">
         <v>340</v>
       </c>
       <c r="D46" t="s">
@@ -1767,7 +1866,7 @@
       <c r="B47" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47">
         <v>335</v>
       </c>
       <c r="D47" t="s">
@@ -1779,88 +1878,261 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="8">
+        <v>400</v>
+      </c>
+      <c r="D48" t="s">
         <v>148</v>
       </c>
-      <c r="B48" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48" s="3">
-        <v>230</v>
-      </c>
-      <c r="D48" t="s">
-        <v>150</v>
-      </c>
       <c r="E48" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="B49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="8">
+        <v>325</v>
+      </c>
+      <c r="D49" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="3">
-        <v>271</v>
-      </c>
-      <c r="D49" t="s">
-        <v>153</v>
-      </c>
       <c r="E49" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="3">
-        <v>122</v>
+        <v>178</v>
+      </c>
+      <c r="C50" s="8">
+        <v>319</v>
       </c>
       <c r="D50" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="3">
-        <v>366</v>
+        <v>179</v>
+      </c>
+      <c r="C51" s="8">
+        <v>345</v>
       </c>
       <c r="D51" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E51" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="8">
+        <v>360</v>
+      </c>
+      <c r="D52" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" s="8">
+        <v>180</v>
+      </c>
+      <c r="D53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="8">
+        <v>315</v>
+      </c>
+      <c r="D54" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="8">
+        <v>288</v>
+      </c>
+      <c r="D55" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="8">
+        <v>345</v>
+      </c>
+      <c r="D56" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="8">
+        <v>369</v>
+      </c>
+      <c r="D57" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="8">
+        <v>230</v>
+      </c>
+      <c r="D58" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="8">
+        <v>396</v>
+      </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="8">
+        <v>220</v>
+      </c>
+      <c r="D60" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="8">
+        <v>438</v>
+      </c>
+      <c r="D61" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="8">
+        <v>246</v>
+      </c>
+      <c r="D62" t="s">
         <v>162</v>
       </c>
-      <c r="B52" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1771</v>
-      </c>
-      <c r="D52" t="s">
-        <v>163</v>
-      </c>
-      <c r="E52" t="s">
-        <v>164</v>
-      </c>
+      <c r="E62" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFB6A33-0729-48E4-AE8C-BE659D92B11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD0628E-39A5-408D-A94D-427AD42D83A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="417">
   <si>
     <t>Category</t>
   </si>
@@ -624,6 +623,666 @@
   </si>
   <si>
     <t>HEY DUDE(CAL)/A-1386</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/k5pYgCs3/Whats-App-Image-2025-05-28-at-16-59-41.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/1ztYSXpr/Whats-App-Image-2025-05-28-at-16-59-42.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/J0wTjQSp/Whats-App-Image-2025-05-28-at-16-59-43.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/VL8G6Dq6/Whats-App-Image-2025-05-28-at-16-59-44.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/dQdNwzTp/Whats-App-Image-2025-05-28-at-16-59-44-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/pLVsQr1M/Whats-App-Image-2025-05-28-at-16-59-45.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/tCNrVWkz/Whats-App-Image-2025-05-28-at-16-59-45-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/QMHSPP36/Whats-App-Image-2025-05-28-at-16-59-47.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/3xLnthP4/Whats-App-Image-2025-05-28-at-16-59-47-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/SK3VprQm/Whats-App-Image-2025-05-28-at-16-59-49-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/d3m9rc20/Whats-App-Image-2025-05-28-at-16-59-50.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/0jqfzyJ3/Whats-App-Image-2025-05-28-at-16-59-50-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/zX8753NH/Whats-App-Image-2025-05-28-at-16-59-51.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/FFjp23MQ/Whats-App-Image-2025-05-28-at-16-59-51-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/X7L8v3NH/Whats-App-Image-2025-05-28-at-16-59-53.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/T3HJr9Dn/Whats-App-Image-2025-05-28-at-16-59-54.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/g20KX5nY/Whats-App-Image-2025-05-28-at-16-59-54-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/cJgMTnR2/Whats-App-Image-2025-05-28-at-16-59-55.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/ZR6PzzDL/Whats-App-Image-2025-05-28-at-16-59-56.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/fbG7PR5L/Whats-App-Image-2025-05-28-at-16-59-56-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/tJ5h7tbZ/Whats-App-Image-2025-05-28-at-16-59-57.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/7hD3xtFr/Whats-App-Image-2025-05-28-at-16-59-57-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/28kQMJd4/Whats-App-Image-2025-05-28-at-16-59-58.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/ryCGhc4V/Whats-App-Image-2025-05-28-at-16-59-58-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/3xWgJvcN/Whats-App-Image-2025-05-28-at-16-59-59.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/zDdD1zyD/Whats-App-Image-2025-05-29-at-13-24-50.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/3R8hPV7D/Whats-App-Image-2025-05-29-at-13-24-44.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/hj2ngsPZ/Whats-App-Image-2025-05-29-at-13-24-45.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/5yGMQtzw/Whats-App-Image-2025-05-29-at-13-24-45-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/kX6C3xrw/Whats-App-Image-2025-05-29-at-13-24-46.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Bbt0vFjS/Whats-App-Image-2025-05-29-at-13-24-46-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/WbBv2hTV/Whats-App-Image-2025-05-29-at-13-24-47.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/RCbmDgYN/Whats-App-Image-2025-05-29-at-13-24-47-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/cJmyMhY1/Whats-App-Image-2025-05-29-at-13-24-48.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/JzjWtMzk/Whats-App-Image-2025-05-29-at-13-24-48-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/9M86sfJv/Whats-App-Image-2025-05-29-at-13-24-49.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Y9CcXFf6/Whats-App-Image-2025-05-29-at-13-24-49-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Kj16byW4/Whats-App-Image-2025-05-29-at-13-24-50-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/02JTHPmB/Whats-App-Image-2025-05-29-at-13-24-51.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/HWKG2VJM/Whats-App-Image-2025-05-29-at-13-24-52.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/gj1fkT9s/Whats-App-Image-2025-05-29-at-13-24-52-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Vkq3mgK9/Whats-App-Image-2025-05-29-at-13-24-53.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/CxTW3XsL/Whats-App-Image-2025-05-29-at-13-24-53-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/d0Jg1Cfb/Whats-App-Image-2025-05-29-at-13-24-54.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/1tPgvwB5/Whats-App-Image-2025-05-29-at-13-28-56.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/6qby6SXy/Whats-App-Image-2025-05-29-at-13-28-57.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/rmJD3sZG/Whats-App-Image-2025-05-29-at-13-28-57-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/7hZ5k4jF/Whats-App-Image-2025-05-29-at-13-28-58.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/25nbd24K/Whats-App-Image-2025-05-29-at-13-28-58-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/bNdZVzxb/Whats-App-Image-2025-05-29-at-13-29-04-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/YqVhJJRP/Whats-App-Image-2025-05-29-at-13-29-05.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/wBY3BLSc/Whats-App-Image-2025-05-29-at-13-29-05-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/fLwLcZWV/Whats-App-Image-2025-05-29-at-13-29-06.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/fb7ySks4/Whats-App-Image-2025-05-29-at-13-29-06-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/VLqgKWm2/Whats-App-Image-2025-05-29-at-15-38-23.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/gkF4yTFv/Whats-App-Image-2025-05-29-at-15-38-24.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/QdjbwKMC/Whats-App-Image-2025-05-29-at-15-38-24-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/c6y95d9S/Whats-App-Image-2025-05-29-at-16-00-16.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/4Nps4yTp/Whats-App-Image-2025-05-29-at-16-00-17.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/h4zKwMyy/Whats-App-Image-2025-05-29-at-16-00-17-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/T3GGKxRF/Whats-App-Image-2025-05-29-at-16-00-18.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/3wxTZZ0Z/Whats-App-Image-2025-05-29-at-16-00-19.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/XY8WFPqJ/Whats-App-Image-2025-05-29-at-16-00-19-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/hjHRcWyC/Whats-App-Image-2025-05-29-at-16-00-20.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/zf212RnY/Whats-App-Image-2025-05-29-at-16-00-20-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/GtGwp76b/Whats-App-Image-2025-05-29-at-16-00-21.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/KzKh6vNk/Whats-App-Image-2025-05-29-at-16-00-21-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Prnn7H8J/Whats-App-Image-2025-05-29-at-16-00-22.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/v8VdXTTC/Whats-App-Image-2025-05-29-at-16-00-22-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/vZ3RD62x/Whats-App-Image-2025-05-29-at-16-00-23.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/BQ5f9zxg/Whats-App-Image-2025-05-29-at-16-00-23-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/k540SXL1/Whats-App-Image-2025-05-29-at-16-00-24.jpg</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-008 - 20/30 - 660</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-0017 - 20/30 - 3PCS BOX - COTTON - 660</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-0017 - 20/36 - 3PCS BOX - COTTON - 660</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-0016 - 20/30 - 3PCS BOX - COTTON - 660</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-0018 - 20/30 - 3PCS BOX - COTTON - 660</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-001 - 20/30 - 3PCS BOX - COTTON - 660</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-5366 - 24/34 - 3PCS BOX - 1150</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-5353 - 24/34 - 3PCS BOX - 1250</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-5376 - 24/34 - 3PCS BOX - 1190</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-6001 - 24/34 - 3PCS BOX - 1190</t>
+  </si>
+  <si>
+    <t>D.D. KENZO/A-5375 - 24/34 - 3PCS BOX - 1090</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-5360 - 24/34 - 3PCS BOX - 1290</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-5367 - 24/34 - 3PCS BOX - 1280</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-6102 - 18/22 - 3PCS BOX - 710</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-6076 - 18/22 - 3PCS BOX - 750</t>
+  </si>
+  <si>
+    <t>CUTIES/A-4353 - 24/34 - 3PCS BOX - 1120</t>
+  </si>
+  <si>
+    <t>D.D /A-6106 - 18/22 - 3PCS BOX - 730</t>
+  </si>
+  <si>
+    <t>CUTIES/A-4336 - 24/34 - 3PCS BOX - 1120</t>
+  </si>
+  <si>
+    <t>CUTIES/A-4355 - 24/34 - 3PCS BOX - 1120</t>
+  </si>
+  <si>
+    <t>D.D. KENZO - 24/34 - 3PCS BOX - 1290</t>
+  </si>
+  <si>
+    <t>D.D KENZO - 24/34 - 3PCS BOX - 1260</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-483 - 24/34 - 3PCS BOX - 1120</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-468 - 24/34 - 3PCS BOX - 1140</t>
+  </si>
+  <si>
+    <t>D.D/A-9132 - 18/22 - 3PCS BOX - 690</t>
+  </si>
+  <si>
+    <t>D.D/A-9133 - 18/22 - 3PCS BOX - 720</t>
+  </si>
+  <si>
+    <t>D.D/A-9124 - 18/22 - 3PCS BOX - 690</t>
+  </si>
+  <si>
+    <t>D.D/A-9110 - 18/22 - 3PCS BOX - 655</t>
+  </si>
+  <si>
+    <t>PINK CASTLE/A-1180 - 16/32 - 3PCS BOX - COTTON &amp; RFD - 595</t>
+  </si>
+  <si>
+    <t>TINA MINA/A-1250 - 22/32 - 3PCS BOX - 715</t>
+  </si>
+  <si>
+    <t>TINA MINA/A-1259 - 22/32 - 3PCS BOX - 650</t>
+  </si>
+  <si>
+    <t>MINI-Q A/7547 - 22/38 - 3PCS BOX - 350</t>
+  </si>
+  <si>
+    <t>MINI-Q A/-7541 - 22/38 - 3PCS BOX - COTTON LYCRA - 330</t>
+  </si>
+  <si>
+    <t>SALVIA/A-1543 - 22/38 - 3PCS BOX - COTTON LYCRA - 335</t>
+  </si>
+  <si>
+    <t>SALVIA/A-1531 - 22/32 - 3PCS BOX - COTTON LYCRA - 335</t>
+  </si>
+  <si>
+    <t>SMILE /A-2135 - 16/32 - 3PCS BOX - COTTON LYCRA - 445</t>
+  </si>
+  <si>
+    <t>MINNIE /A-1130 - 16/26 - 3PCS BOX - 415</t>
+  </si>
+  <si>
+    <t>TINI MINI/A-7138 - 22/32 - 3PCS BOX - TENCIL COTTON - 285</t>
+  </si>
+  <si>
+    <t>TINI MINI/A-7233 - 22/38 - 3PCS BOX - COTTON - 205</t>
+  </si>
+  <si>
+    <t>TINI MINI/A-7136 - 22/32 - 3PCS BOX - TENCIL COTTON - 205</t>
+  </si>
+  <si>
+    <t>TINI MINI /A-7232 - 22/32 - 3PCS BOX - COTTON - 165</t>
+  </si>
+  <si>
+    <t>TINI MINI/A-7210 - 22/32 - 3PCS BOX - COTTON - 240</t>
+  </si>
+  <si>
+    <t>BALENO/A-0000 - 20/36 - 18PCS BOX - 97</t>
+  </si>
+  <si>
+    <t>GLARE/A-106 - 18/34 - 18PCS BOX - COTTON - 108</t>
+  </si>
+  <si>
+    <t>SPARK/A-7546 - 26/36 - 3PCS BOX - COTTON - 377</t>
+  </si>
+  <si>
+    <t>SPARK/A-7536 - 26/36 - 3PCS BOX - COTTON - 405</t>
+  </si>
+  <si>
+    <t>BALENO/A-0000 - 6PCS BOX - 97</t>
+  </si>
+  <si>
+    <t>BALENO/A-7410 - 20/36 - 6PCS BOX - COTTON (D-SHOULDER) - 125</t>
+  </si>
+  <si>
+    <t>BALENO/A-6407 - 20/36 - 3PCS BOX - COTTON - 195</t>
+  </si>
+  <si>
+    <t>BALENO/A-6405 - 20/36 - 3PCS BOX - TENCIL - 165</t>
+  </si>
+  <si>
+    <t>BALENO/A-6409 - 20/36 - 3PCS BOX - TENCIL - 120</t>
+  </si>
+  <si>
+    <t>BALENO/A-7853 - 20/36 - 3PCS BOX - TENCIL - 195</t>
+  </si>
+  <si>
+    <t>CRISPY/A-2330 - 2/9 - 1PCS BOX - 515</t>
+  </si>
+  <si>
+    <t>NEW TOPS/A-6080 - 20/36 - 1PCS BOX - 485</t>
+  </si>
+  <si>
+    <t>FROGGER/A-1487 - 24/36 - 6PCS BOX - TENCIL (D-SHOULDER) - 122</t>
+  </si>
+  <si>
+    <t>A /A-1417 - 24/36 - 6PCS BOX - TENCIL LYCRA - 133</t>
+  </si>
+  <si>
+    <t>A /A-32391 - 26/36 - 3PCS BOX - COTTON (D-SHOULDER) - 158</t>
+  </si>
+  <si>
+    <t>A+ /A-32706 - 26/36 - 3PCS BOX - TENCIL (D-SHOULDER) - 194</t>
+  </si>
+  <si>
+    <t>A+ /A-32569 - 26/36 - 3PCS BOX - COTTON LYCRA - 228</t>
+  </si>
+  <si>
+    <t>A+ /A-2102 - 24/36 - 6PCS BOX - 210</t>
+  </si>
+  <si>
+    <t>FRESH SPORTS /A-2124 - 24/36 - 6PCS BOX - 210</t>
+  </si>
+  <si>
+    <t>A /A-B01 - 26/36 - 3PCS BOX - IMPORTEED - 288</t>
+  </si>
+  <si>
+    <t>A /A-V01 - 26/36 - 3PCS BOX - IMPORTEED - 288</t>
+  </si>
+  <si>
+    <t>ALAG /A-969 - 26/36 - 3PCS BOX - IMPORTEED - 319</t>
+  </si>
+  <si>
+    <t>FRESH SPORTS /A-1268 - 26/36 - 3PCS BOX - COTTON  - 425</t>
+  </si>
+  <si>
+    <t>ALAG/A-904 - 26/36 - 3PCS BOX - TEXTURE - 268</t>
+  </si>
+  <si>
+    <t>FRESH SPORTS/A-1295 - 26/36 - 3PCS BOX - C WASH - 480</t>
+  </si>
+  <si>
+    <t>FRESH SPORTS/A-1291 - 26/36 - 3PCS BOX - 380</t>
+  </si>
+  <si>
+    <t>FRESH SPORTS/A-1293 - 32/36 - 3PCS BOX - MINI WAFFLE - 395</t>
+  </si>
+  <si>
+    <t>SALWAR-SUIT</t>
+  </si>
+  <si>
+    <t>LACHA</t>
+  </si>
+  <si>
+    <t>FARSHI</t>
+  </si>
+  <si>
+    <t>SHARARA</t>
+  </si>
+  <si>
+    <t>DHOTI</t>
+  </si>
+  <si>
+    <t>GHARARA</t>
+  </si>
+  <si>
+    <t>PLAZO</t>
+  </si>
+  <si>
+    <t>CAPRI SUIT</t>
+  </si>
+  <si>
+    <t>SKIRT-TOP</t>
+  </si>
+  <si>
+    <t>NICKER-SUIT</t>
+  </si>
+  <si>
+    <t>GIRLISH SUIT</t>
+  </si>
+  <si>
+    <t>T-SHIRT</t>
+  </si>
+  <si>
+    <t>KURTA-PAJAMA</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-008</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-0017</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-0016</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-0018</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-001</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-5366</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-5353</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-5376</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-6001</t>
+  </si>
+  <si>
+    <t>D.D. KENZO/A-5375</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-5360</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-5367</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-6102</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-6076</t>
+  </si>
+  <si>
+    <t>CUTIES/A-4353</t>
+  </si>
+  <si>
+    <t>D.D /A-6106</t>
+  </si>
+  <si>
+    <t>CUTIES/A-4336</t>
+  </si>
+  <si>
+    <t>CUTIES/A-4355</t>
+  </si>
+  <si>
+    <t>D.D. KENZO</t>
+  </si>
+  <si>
+    <t>D.D KENZO</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-483</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-468</t>
+  </si>
+  <si>
+    <t>D.D/A-9132</t>
+  </si>
+  <si>
+    <t>D.D/A-9133</t>
+  </si>
+  <si>
+    <t>D.D/A-9124</t>
+  </si>
+  <si>
+    <t>D.D/A-9110</t>
+  </si>
+  <si>
+    <t>PINK CASTLE/A-1180</t>
+  </si>
+  <si>
+    <t>TINA MINA/A-1250</t>
+  </si>
+  <si>
+    <t>TINA MINA/A-1259</t>
+  </si>
+  <si>
+    <t>MINI-Q A/7547</t>
+  </si>
+  <si>
+    <t>MINI-Q A/-7541</t>
+  </si>
+  <si>
+    <t>SALVIA/A-1543</t>
+  </si>
+  <si>
+    <t>SALVIA/A-1531</t>
+  </si>
+  <si>
+    <t>SMILE /A-2135</t>
+  </si>
+  <si>
+    <t>MINNIE /A-1130</t>
+  </si>
+  <si>
+    <t>TINI MINI/A-7138</t>
+  </si>
+  <si>
+    <t>TINI MINI/A-7233</t>
+  </si>
+  <si>
+    <t>TINI MINI/A-7136</t>
+  </si>
+  <si>
+    <t>TINI MINI /A-7232</t>
+  </si>
+  <si>
+    <t>TINI MINI/A-7210</t>
+  </si>
+  <si>
+    <t>BALENO/A-0000</t>
+  </si>
+  <si>
+    <t>GLARE/A-106</t>
+  </si>
+  <si>
+    <t>SPARK/A-7546</t>
+  </si>
+  <si>
+    <t>SPARK/A-7536</t>
+  </si>
+  <si>
+    <t>BALENO/A-7408</t>
+  </si>
+  <si>
+    <t>BALENO/A-7410</t>
+  </si>
+  <si>
+    <t>BALENO/A-6407</t>
+  </si>
+  <si>
+    <t>BALENO/A-6405</t>
+  </si>
+  <si>
+    <t>BALENO/A-6409</t>
+  </si>
+  <si>
+    <t>BALENO/A-7853</t>
+  </si>
+  <si>
+    <t>CRISPY/A-2330</t>
+  </si>
+  <si>
+    <t>NEW TOPS/A-6080</t>
+  </si>
+  <si>
+    <t>FROGGER/A-1487</t>
+  </si>
+  <si>
+    <t>A /A-1417</t>
+  </si>
+  <si>
+    <t>A /A-32391</t>
+  </si>
+  <si>
+    <t>A+ /A-32706</t>
+  </si>
+  <si>
+    <t>A+ /A-32569</t>
+  </si>
+  <si>
+    <t>A+ /A-2102</t>
+  </si>
+  <si>
+    <t>FRESH SPORTS /A-2124</t>
+  </si>
+  <si>
+    <t>A /A-B01</t>
+  </si>
+  <si>
+    <t>A /A-V01</t>
+  </si>
+  <si>
+    <t>ALAG /A-969</t>
+  </si>
+  <si>
+    <t>FRESH SPORTS /A-1268</t>
+  </si>
+  <si>
+    <t>ALAG/A-904</t>
+  </si>
+  <si>
+    <t>FRESH SPORTS/A-1295</t>
+  </si>
+  <si>
+    <t>FRESH SPORTS/A-1291</t>
+  </si>
+  <si>
+    <t>FRESH SPORTS/A-1293</t>
   </si>
 </sst>
 </file>
@@ -712,7 +1371,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -728,6 +1387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1033,10 +1693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,7 +2792,1228 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="8"/>
+      <c r="A63" t="s">
+        <v>350</v>
+      </c>
+      <c r="B63" t="s">
+        <v>337</v>
+      </c>
+      <c r="C63" s="9">
+        <v>660</v>
+      </c>
+      <c r="D63" t="s">
+        <v>269</v>
+      </c>
+      <c r="E63" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>351</v>
+      </c>
+      <c r="B64" t="s">
+        <v>337</v>
+      </c>
+      <c r="C64" s="9">
+        <v>660</v>
+      </c>
+      <c r="D64" t="s">
+        <v>270</v>
+      </c>
+      <c r="E64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>351</v>
+      </c>
+      <c r="B65" t="s">
+        <v>337</v>
+      </c>
+      <c r="C65" s="9">
+        <v>660</v>
+      </c>
+      <c r="D65" t="s">
+        <v>271</v>
+      </c>
+      <c r="E65" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>352</v>
+      </c>
+      <c r="B66" t="s">
+        <v>337</v>
+      </c>
+      <c r="C66" s="9">
+        <v>660</v>
+      </c>
+      <c r="D66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E66" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>352</v>
+      </c>
+      <c r="B67" t="s">
+        <v>337</v>
+      </c>
+      <c r="C67" s="9">
+        <v>660</v>
+      </c>
+      <c r="D67" t="s">
+        <v>272</v>
+      </c>
+      <c r="E67" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>351</v>
+      </c>
+      <c r="B68" t="s">
+        <v>337</v>
+      </c>
+      <c r="C68" s="9">
+        <v>660</v>
+      </c>
+      <c r="D68" t="s">
+        <v>270</v>
+      </c>
+      <c r="E68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>353</v>
+      </c>
+      <c r="B69" t="s">
+        <v>337</v>
+      </c>
+      <c r="C69" s="9">
+        <v>660</v>
+      </c>
+      <c r="D69" t="s">
+        <v>273</v>
+      </c>
+      <c r="E69" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>354</v>
+      </c>
+      <c r="B70" t="s">
+        <v>337</v>
+      </c>
+      <c r="C70" s="9">
+        <v>660</v>
+      </c>
+      <c r="D70" t="s">
+        <v>274</v>
+      </c>
+      <c r="E70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>352</v>
+      </c>
+      <c r="B71" t="s">
+        <v>337</v>
+      </c>
+      <c r="C71" s="9">
+        <v>660</v>
+      </c>
+      <c r="D71" t="s">
+        <v>272</v>
+      </c>
+      <c r="E71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>355</v>
+      </c>
+      <c r="B72" t="s">
+        <v>338</v>
+      </c>
+      <c r="C72" s="9">
+        <v>1150</v>
+      </c>
+      <c r="D72" t="s">
+        <v>275</v>
+      </c>
+      <c r="E72" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>356</v>
+      </c>
+      <c r="B73" t="s">
+        <v>338</v>
+      </c>
+      <c r="C73" s="9">
+        <v>1250</v>
+      </c>
+      <c r="D73" t="s">
+        <v>276</v>
+      </c>
+      <c r="E73" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>357</v>
+      </c>
+      <c r="B74" t="s">
+        <v>338</v>
+      </c>
+      <c r="C74" s="9">
+        <v>1190</v>
+      </c>
+      <c r="D74" t="s">
+        <v>277</v>
+      </c>
+      <c r="E74" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>358</v>
+      </c>
+      <c r="B75" t="s">
+        <v>339</v>
+      </c>
+      <c r="C75" s="9">
+        <v>1190</v>
+      </c>
+      <c r="D75" t="s">
+        <v>278</v>
+      </c>
+      <c r="E75" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>359</v>
+      </c>
+      <c r="B76" t="s">
+        <v>338</v>
+      </c>
+      <c r="C76" s="9">
+        <v>1090</v>
+      </c>
+      <c r="D76" t="s">
+        <v>279</v>
+      </c>
+      <c r="E76" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>360</v>
+      </c>
+      <c r="B77" t="s">
+        <v>338</v>
+      </c>
+      <c r="C77" s="9">
+        <v>1290</v>
+      </c>
+      <c r="D77" t="s">
+        <v>280</v>
+      </c>
+      <c r="E77" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>361</v>
+      </c>
+      <c r="B78" t="s">
+        <v>338</v>
+      </c>
+      <c r="C78" s="9">
+        <v>1280</v>
+      </c>
+      <c r="D78" t="s">
+        <v>281</v>
+      </c>
+      <c r="E78" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>362</v>
+      </c>
+      <c r="B79" t="s">
+        <v>338</v>
+      </c>
+      <c r="C79" s="9">
+        <v>710</v>
+      </c>
+      <c r="D79" t="s">
+        <v>282</v>
+      </c>
+      <c r="E79" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>363</v>
+      </c>
+      <c r="B80" t="s">
+        <v>338</v>
+      </c>
+      <c r="C80" s="9">
+        <v>750</v>
+      </c>
+      <c r="D80" t="s">
+        <v>283</v>
+      </c>
+      <c r="E80" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>364</v>
+      </c>
+      <c r="B81" t="s">
+        <v>340</v>
+      </c>
+      <c r="C81" s="9">
+        <v>1120</v>
+      </c>
+      <c r="D81" t="s">
+        <v>284</v>
+      </c>
+      <c r="E81" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>365</v>
+      </c>
+      <c r="B82" t="s">
+        <v>338</v>
+      </c>
+      <c r="C82" s="9">
+        <v>730</v>
+      </c>
+      <c r="D82" t="s">
+        <v>285</v>
+      </c>
+      <c r="E82" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>366</v>
+      </c>
+      <c r="B83" t="s">
+        <v>341</v>
+      </c>
+      <c r="C83" s="9">
+        <v>1120</v>
+      </c>
+      <c r="D83" t="s">
+        <v>286</v>
+      </c>
+      <c r="E83" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>367</v>
+      </c>
+      <c r="B84" t="s">
+        <v>340</v>
+      </c>
+      <c r="C84" s="9">
+        <v>1120</v>
+      </c>
+      <c r="D84" t="s">
+        <v>287</v>
+      </c>
+      <c r="E84" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>368</v>
+      </c>
+      <c r="B85" t="s">
+        <v>340</v>
+      </c>
+      <c r="C85" s="9">
+        <v>1290</v>
+      </c>
+      <c r="D85" t="s">
+        <v>288</v>
+      </c>
+      <c r="E85" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>369</v>
+      </c>
+      <c r="B86" t="s">
+        <v>340</v>
+      </c>
+      <c r="C86" s="9">
+        <v>1260</v>
+      </c>
+      <c r="D86" t="s">
+        <v>289</v>
+      </c>
+      <c r="E86" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>370</v>
+      </c>
+      <c r="B87" t="s">
+        <v>342</v>
+      </c>
+      <c r="C87" s="9">
+        <v>1120</v>
+      </c>
+      <c r="D87" t="s">
+        <v>290</v>
+      </c>
+      <c r="E87" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>371</v>
+      </c>
+      <c r="B88" t="s">
+        <v>342</v>
+      </c>
+      <c r="C88" s="9">
+        <v>1140</v>
+      </c>
+      <c r="D88" t="s">
+        <v>291</v>
+      </c>
+      <c r="E88" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>372</v>
+      </c>
+      <c r="B89" t="s">
+        <v>343</v>
+      </c>
+      <c r="C89" s="9">
+        <v>690</v>
+      </c>
+      <c r="D89" t="s">
+        <v>292</v>
+      </c>
+      <c r="E89" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>373</v>
+      </c>
+      <c r="B90" t="s">
+        <v>342</v>
+      </c>
+      <c r="C90" s="9">
+        <v>720</v>
+      </c>
+      <c r="D90" t="s">
+        <v>293</v>
+      </c>
+      <c r="E90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>374</v>
+      </c>
+      <c r="B91" t="s">
+        <v>342</v>
+      </c>
+      <c r="C91" s="9">
+        <v>690</v>
+      </c>
+      <c r="D91" t="s">
+        <v>294</v>
+      </c>
+      <c r="E91" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>375</v>
+      </c>
+      <c r="B92" t="s">
+        <v>342</v>
+      </c>
+      <c r="C92" s="9">
+        <v>655</v>
+      </c>
+      <c r="D92" t="s">
+        <v>295</v>
+      </c>
+      <c r="E92" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>376</v>
+      </c>
+      <c r="B93" t="s">
+        <v>344</v>
+      </c>
+      <c r="C93" s="9">
+        <v>595</v>
+      </c>
+      <c r="D93" t="s">
+        <v>296</v>
+      </c>
+      <c r="E93" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>377</v>
+      </c>
+      <c r="B94" t="s">
+        <v>345</v>
+      </c>
+      <c r="C94" s="9">
+        <v>715</v>
+      </c>
+      <c r="D94" t="s">
+        <v>297</v>
+      </c>
+      <c r="E94" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>378</v>
+      </c>
+      <c r="B95" t="s">
+        <v>346</v>
+      </c>
+      <c r="C95" s="9">
+        <v>650</v>
+      </c>
+      <c r="D95" t="s">
+        <v>298</v>
+      </c>
+      <c r="E95" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>379</v>
+      </c>
+      <c r="B96" t="s">
+        <v>347</v>
+      </c>
+      <c r="C96" s="9">
+        <v>350</v>
+      </c>
+      <c r="D96" t="s">
+        <v>299</v>
+      </c>
+      <c r="E96" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>380</v>
+      </c>
+      <c r="B97" t="s">
+        <v>347</v>
+      </c>
+      <c r="C97" s="9">
+        <v>330</v>
+      </c>
+      <c r="D97" t="s">
+        <v>300</v>
+      </c>
+      <c r="E97" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>381</v>
+      </c>
+      <c r="B98" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" s="9">
+        <v>335</v>
+      </c>
+      <c r="D98" t="s">
+        <v>301</v>
+      </c>
+      <c r="E98" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>382</v>
+      </c>
+      <c r="B99" t="s">
+        <v>180</v>
+      </c>
+      <c r="C99" s="9">
+        <v>335</v>
+      </c>
+      <c r="D99" t="s">
+        <v>302</v>
+      </c>
+      <c r="E99" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>383</v>
+      </c>
+      <c r="B100" t="s">
+        <v>180</v>
+      </c>
+      <c r="C100" s="9">
+        <v>445</v>
+      </c>
+      <c r="D100" t="s">
+        <v>303</v>
+      </c>
+      <c r="E100" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>384</v>
+      </c>
+      <c r="B101" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" s="9">
+        <v>415</v>
+      </c>
+      <c r="D101" t="s">
+        <v>304</v>
+      </c>
+      <c r="E101" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>385</v>
+      </c>
+      <c r="B102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" s="9">
+        <v>285</v>
+      </c>
+      <c r="D102" t="s">
+        <v>305</v>
+      </c>
+      <c r="E102" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>386</v>
+      </c>
+      <c r="B103" t="s">
+        <v>344</v>
+      </c>
+      <c r="C103" s="9">
+        <v>205</v>
+      </c>
+      <c r="D103" t="s">
+        <v>306</v>
+      </c>
+      <c r="E103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>387</v>
+      </c>
+      <c r="B104" t="s">
+        <v>344</v>
+      </c>
+      <c r="C104" s="9">
+        <v>205</v>
+      </c>
+      <c r="D104" t="s">
+        <v>307</v>
+      </c>
+      <c r="E104" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>388</v>
+      </c>
+      <c r="B105" t="s">
+        <v>344</v>
+      </c>
+      <c r="C105" s="9">
+        <v>165</v>
+      </c>
+      <c r="D105" t="s">
+        <v>308</v>
+      </c>
+      <c r="E105" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>389</v>
+      </c>
+      <c r="B106" t="s">
+        <v>178</v>
+      </c>
+      <c r="C106" s="9">
+        <v>240</v>
+      </c>
+      <c r="D106" t="s">
+        <v>309</v>
+      </c>
+      <c r="E106" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>390</v>
+      </c>
+      <c r="B107" t="s">
+        <v>348</v>
+      </c>
+      <c r="C107" s="9">
+        <v>97</v>
+      </c>
+      <c r="D107" t="s">
+        <v>310</v>
+      </c>
+      <c r="E107" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>391</v>
+      </c>
+      <c r="B108" t="s">
+        <v>348</v>
+      </c>
+      <c r="C108" s="9">
+        <v>108</v>
+      </c>
+      <c r="D108" t="s">
+        <v>311</v>
+      </c>
+      <c r="E108" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>392</v>
+      </c>
+      <c r="B109" t="s">
+        <v>348</v>
+      </c>
+      <c r="C109" s="9">
+        <v>377</v>
+      </c>
+      <c r="D109" t="s">
+        <v>312</v>
+      </c>
+      <c r="E109" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>393</v>
+      </c>
+      <c r="B110" t="s">
+        <v>348</v>
+      </c>
+      <c r="C110" s="9">
+        <v>405</v>
+      </c>
+      <c r="D110" t="s">
+        <v>313</v>
+      </c>
+      <c r="E110" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>394</v>
+      </c>
+      <c r="B111" t="s">
+        <v>348</v>
+      </c>
+      <c r="C111" s="9">
+        <v>125</v>
+      </c>
+      <c r="D111" t="s">
+        <v>314</v>
+      </c>
+      <c r="E111" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>395</v>
+      </c>
+      <c r="B112" t="s">
+        <v>348</v>
+      </c>
+      <c r="C112" s="9">
+        <v>125</v>
+      </c>
+      <c r="D112" t="s">
+        <v>315</v>
+      </c>
+      <c r="E112" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>396</v>
+      </c>
+      <c r="B113" t="s">
+        <v>348</v>
+      </c>
+      <c r="C113" s="9">
+        <v>195</v>
+      </c>
+      <c r="D113" t="s">
+        <v>316</v>
+      </c>
+      <c r="E113" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>397</v>
+      </c>
+      <c r="B114" t="s">
+        <v>348</v>
+      </c>
+      <c r="C114" s="9">
+        <v>165</v>
+      </c>
+      <c r="D114" t="s">
+        <v>317</v>
+      </c>
+      <c r="E114" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>398</v>
+      </c>
+      <c r="B115" t="s">
+        <v>348</v>
+      </c>
+      <c r="C115" s="9">
+        <v>120</v>
+      </c>
+      <c r="D115" t="s">
+        <v>318</v>
+      </c>
+      <c r="E115" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>399</v>
+      </c>
+      <c r="B116" t="s">
+        <v>348</v>
+      </c>
+      <c r="C116" s="9">
+        <v>195</v>
+      </c>
+      <c r="D116" t="s">
+        <v>319</v>
+      </c>
+      <c r="E116" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>400</v>
+      </c>
+      <c r="B117" t="s">
+        <v>349</v>
+      </c>
+      <c r="C117" s="9">
+        <v>515</v>
+      </c>
+      <c r="D117" t="s">
+        <v>320</v>
+      </c>
+      <c r="E117" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>400</v>
+      </c>
+      <c r="B118" t="s">
+        <v>349</v>
+      </c>
+      <c r="C118" s="9">
+        <v>515</v>
+      </c>
+      <c r="D118" t="s">
+        <v>320</v>
+      </c>
+      <c r="E118" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>401</v>
+      </c>
+      <c r="B119" t="s">
+        <v>349</v>
+      </c>
+      <c r="C119" s="9">
+        <v>485</v>
+      </c>
+      <c r="D119" t="s">
+        <v>321</v>
+      </c>
+      <c r="E119" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>402</v>
+      </c>
+      <c r="B120" t="s">
+        <v>348</v>
+      </c>
+      <c r="C120" s="9">
+        <v>122</v>
+      </c>
+      <c r="D120" t="s">
+        <v>322</v>
+      </c>
+      <c r="E120" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>403</v>
+      </c>
+      <c r="B121" t="s">
+        <v>348</v>
+      </c>
+      <c r="C121" s="9">
+        <v>133</v>
+      </c>
+      <c r="D121" t="s">
+        <v>323</v>
+      </c>
+      <c r="E121" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>404</v>
+      </c>
+      <c r="B122" t="s">
+        <v>348</v>
+      </c>
+      <c r="C122" s="9">
+        <v>158</v>
+      </c>
+      <c r="D122" t="s">
+        <v>324</v>
+      </c>
+      <c r="E122" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>405</v>
+      </c>
+      <c r="B123" t="s">
+        <v>348</v>
+      </c>
+      <c r="C123" s="9">
+        <v>194</v>
+      </c>
+      <c r="D123" t="s">
+        <v>325</v>
+      </c>
+      <c r="E123" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>406</v>
+      </c>
+      <c r="B124" t="s">
+        <v>348</v>
+      </c>
+      <c r="C124" s="9">
+        <v>228</v>
+      </c>
+      <c r="D124" t="s">
+        <v>326</v>
+      </c>
+      <c r="E124" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>407</v>
+      </c>
+      <c r="B125" t="s">
+        <v>348</v>
+      </c>
+      <c r="C125" s="9">
+        <v>210</v>
+      </c>
+      <c r="D125" t="s">
+        <v>327</v>
+      </c>
+      <c r="E125" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>408</v>
+      </c>
+      <c r="B126" t="s">
+        <v>348</v>
+      </c>
+      <c r="C126" s="9">
+        <v>210</v>
+      </c>
+      <c r="D126" t="s">
+        <v>328</v>
+      </c>
+      <c r="E126" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>409</v>
+      </c>
+      <c r="B127" t="s">
+        <v>348</v>
+      </c>
+      <c r="C127" s="9">
+        <v>288</v>
+      </c>
+      <c r="D127" t="s">
+        <v>329</v>
+      </c>
+      <c r="E127" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>410</v>
+      </c>
+      <c r="B128" t="s">
+        <v>348</v>
+      </c>
+      <c r="C128" s="9">
+        <v>288</v>
+      </c>
+      <c r="D128" t="s">
+        <v>330</v>
+      </c>
+      <c r="E128" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>411</v>
+      </c>
+      <c r="B129" t="s">
+        <v>348</v>
+      </c>
+      <c r="C129" s="9">
+        <v>319</v>
+      </c>
+      <c r="D129" t="s">
+        <v>331</v>
+      </c>
+      <c r="E129" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>412</v>
+      </c>
+      <c r="B130" t="s">
+        <v>348</v>
+      </c>
+      <c r="C130" s="9">
+        <v>425</v>
+      </c>
+      <c r="D130" t="s">
+        <v>332</v>
+      </c>
+      <c r="E130" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>413</v>
+      </c>
+      <c r="B131" t="s">
+        <v>348</v>
+      </c>
+      <c r="C131" s="9">
+        <v>268</v>
+      </c>
+      <c r="D131" t="s">
+        <v>333</v>
+      </c>
+      <c r="E131" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>414</v>
+      </c>
+      <c r="B132" t="s">
+        <v>348</v>
+      </c>
+      <c r="C132" s="9">
+        <v>480</v>
+      </c>
+      <c r="D132" t="s">
+        <v>334</v>
+      </c>
+      <c r="E132" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>415</v>
+      </c>
+      <c r="B133" t="s">
+        <v>348</v>
+      </c>
+      <c r="C133" s="9">
+        <v>380</v>
+      </c>
+      <c r="D133" t="s">
+        <v>335</v>
+      </c>
+      <c r="E133" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>416</v>
+      </c>
+      <c r="B134" t="s">
+        <v>348</v>
+      </c>
+      <c r="C134" s="9">
+        <v>395</v>
+      </c>
+      <c r="D134" t="s">
+        <v>336</v>
+      </c>
+      <c r="E134" t="s">
+        <v>268</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD0628E-39A5-408D-A94D-427AD42D83A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589B734F-EE0A-4BCB-A77E-3476596A4FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="416">
   <si>
     <t>Category</t>
   </si>
@@ -475,9 +475,6 @@
     <t>NICKER</t>
   </si>
   <si>
-    <t>CORDSET</t>
-  </si>
-  <si>
     <t>VEER/A-38510 - 22-26 - 3PCS BOX - PC/COTTON - 400</t>
   </si>
   <si>
@@ -1063,9 +1060,6 @@
     <t>GHARARA</t>
   </si>
   <si>
-    <t>PLAZO</t>
-  </si>
-  <si>
     <t>CAPRI SUIT</t>
   </si>
   <si>
@@ -1283,6 +1277,9 @@
   </si>
   <si>
     <t>FRESH SPORTS/A-1293</t>
+  </si>
+  <si>
+    <t>CORD-SUIT</t>
   </si>
 </sst>
 </file>
@@ -2371,7 +2368,7 @@
         <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C38">
         <v>245</v>
@@ -2388,7 +2385,7 @@
         <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C39">
         <v>295</v>
@@ -2405,7 +2402,7 @@
         <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C40">
         <v>325</v>
@@ -2422,7 +2419,7 @@
         <v>125</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C41">
         <v>421</v>
@@ -2439,7 +2436,7 @@
         <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C42">
         <v>390</v>
@@ -2456,7 +2453,7 @@
         <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C43">
         <v>278</v>
@@ -2473,7 +2470,7 @@
         <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C44">
         <v>238</v>
@@ -2490,7 +2487,7 @@
         <v>137</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C45">
         <v>253</v>
@@ -2507,7 +2504,7 @@
         <v>140</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C46">
         <v>340</v>
@@ -2524,7 +2521,7 @@
         <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C47">
         <v>335</v>
@@ -2538,704 +2535,704 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C48" s="8">
         <v>400</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C49" s="8">
         <v>325</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C50" s="8">
         <v>319</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C51" s="8">
         <v>345</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C52" s="8">
         <v>360</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53" s="8">
         <v>180</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C54" s="8">
         <v>315</v>
       </c>
       <c r="D54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C55" s="8">
         <v>288</v>
       </c>
       <c r="D55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C56" s="8">
         <v>345</v>
       </c>
       <c r="D56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C57" s="8">
         <v>369</v>
       </c>
       <c r="D57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C58" s="8">
         <v>230</v>
       </c>
       <c r="D58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C59" s="8">
         <v>396</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C60" s="8">
         <v>220</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C61" s="8">
         <v>438</v>
       </c>
       <c r="D61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C62" s="8">
         <v>246</v>
       </c>
       <c r="D62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B63" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C63" s="9">
         <v>660</v>
       </c>
       <c r="D63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B64" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C64" s="9">
         <v>660</v>
       </c>
       <c r="D64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B65" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C65" s="9">
         <v>660</v>
       </c>
       <c r="D65" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B66" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C66" s="9">
         <v>660</v>
       </c>
       <c r="D66" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B67" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C67" s="9">
         <v>660</v>
       </c>
       <c r="D67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B68" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C68" s="9">
         <v>660</v>
       </c>
       <c r="D68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B69" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C69" s="9">
         <v>660</v>
       </c>
       <c r="D69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B70" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C70" s="9">
         <v>660</v>
       </c>
       <c r="D70" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B71" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C71" s="9">
         <v>660</v>
       </c>
       <c r="D71" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B72" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C72" s="9">
         <v>1150</v>
       </c>
       <c r="D72" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B73" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C73" s="9">
         <v>1250</v>
       </c>
       <c r="D73" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B74" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C74" s="9">
         <v>1190</v>
       </c>
       <c r="D74" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B75" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C75" s="9">
         <v>1190</v>
       </c>
       <c r="D75" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B76" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C76" s="9">
         <v>1090</v>
       </c>
       <c r="D76" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E76" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B77" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C77" s="9">
         <v>1290</v>
       </c>
       <c r="D77" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E77" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B78" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C78" s="9">
         <v>1280</v>
       </c>
       <c r="D78" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E78" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B79" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C79" s="9">
         <v>710</v>
       </c>
       <c r="D79" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B80" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C80" s="9">
         <v>750</v>
       </c>
       <c r="D80" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E80" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B81" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C81" s="9">
         <v>1120</v>
       </c>
       <c r="D81" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E81" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B82" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C82" s="9">
         <v>730</v>
       </c>
       <c r="D82" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E82" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B83" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C83" s="9">
         <v>1120</v>
       </c>
       <c r="D83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B84" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C84" s="9">
         <v>1120</v>
       </c>
       <c r="D84" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E84" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B85" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C85" s="9">
         <v>1290</v>
       </c>
       <c r="D85" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B86" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C86" s="9">
         <v>1260</v>
       </c>
       <c r="D86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E86" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B87" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C87" s="9">
         <v>1120</v>
       </c>
       <c r="D87" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E87" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B88" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C88" s="9">
         <v>1140</v>
       </c>
       <c r="D88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E88" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B89" t="s">
         <v>343</v>
@@ -3244,775 +3241,775 @@
         <v>690</v>
       </c>
       <c r="D89" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B90" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C90" s="9">
         <v>720</v>
       </c>
       <c r="D90" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B91" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C91" s="9">
         <v>690</v>
       </c>
       <c r="D91" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E91" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B92" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C92" s="9">
         <v>655</v>
       </c>
       <c r="D92" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E92" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B93" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C93" s="9">
         <v>595</v>
       </c>
       <c r="D93" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B94" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C94" s="9">
         <v>715</v>
       </c>
       <c r="D94" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E94" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B95" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C95" s="9">
         <v>650</v>
       </c>
       <c r="D95" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E95" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B96" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C96" s="9">
         <v>350</v>
       </c>
       <c r="D96" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E96" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B97" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C97" s="9">
         <v>330</v>
       </c>
       <c r="D97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B98" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C98" s="9">
         <v>335</v>
       </c>
       <c r="D98" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C99" s="9">
         <v>335</v>
       </c>
       <c r="D99" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E99" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C100" s="9">
         <v>445</v>
       </c>
       <c r="D100" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E100" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B101" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C101" s="9">
         <v>415</v>
       </c>
       <c r="D101" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E101" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B102" t="s">
-        <v>180</v>
+        <v>415</v>
       </c>
       <c r="C102" s="9">
         <v>285</v>
       </c>
       <c r="D102" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E102" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B103" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C103" s="9">
         <v>205</v>
       </c>
       <c r="D103" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E103" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B104" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C104" s="9">
         <v>205</v>
       </c>
       <c r="D104" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B105" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C105" s="9">
         <v>165</v>
       </c>
       <c r="D105" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E105" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C106" s="9">
         <v>240</v>
       </c>
       <c r="D106" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E106" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B107" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C107" s="9">
         <v>97</v>
       </c>
       <c r="D107" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E107" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B108" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C108" s="9">
         <v>108</v>
       </c>
       <c r="D108" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E108" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B109" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C109" s="9">
         <v>377</v>
       </c>
       <c r="D109" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E109" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B110" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C110" s="9">
         <v>405</v>
       </c>
       <c r="D110" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E110" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B111" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C111" s="9">
         <v>125</v>
       </c>
       <c r="D111" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E111" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B112" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C112" s="9">
         <v>125</v>
       </c>
       <c r="D112" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E112" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B113" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C113" s="9">
         <v>195</v>
       </c>
       <c r="D113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E113" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B114" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C114" s="9">
         <v>165</v>
       </c>
       <c r="D114" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E114" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B115" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C115" s="9">
         <v>120</v>
       </c>
       <c r="D115" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B116" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C116" s="9">
         <v>195</v>
       </c>
       <c r="D116" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E116" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B117" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C117" s="9">
         <v>515</v>
       </c>
       <c r="D117" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E117" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B118" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C118" s="9">
         <v>515</v>
       </c>
       <c r="D118" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E118" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B119" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C119" s="9">
         <v>485</v>
       </c>
       <c r="D119" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E119" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B120" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C120" s="9">
         <v>122</v>
       </c>
       <c r="D120" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E120" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B121" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C121" s="9">
         <v>133</v>
       </c>
       <c r="D121" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E121" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B122" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C122" s="9">
         <v>158</v>
       </c>
       <c r="D122" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E122" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B123" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C123" s="9">
         <v>194</v>
       </c>
       <c r="D123" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E123" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B124" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C124" s="9">
         <v>228</v>
       </c>
       <c r="D124" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E124" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B125" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C125" s="9">
         <v>210</v>
       </c>
       <c r="D125" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E125" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B126" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C126" s="9">
         <v>210</v>
       </c>
       <c r="D126" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E126" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B127" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C127" s="9">
         <v>288</v>
       </c>
       <c r="D127" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E127" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B128" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C128" s="9">
         <v>288</v>
       </c>
       <c r="D128" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E128" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B129" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C129" s="9">
         <v>319</v>
       </c>
       <c r="D129" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E129" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B130" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C130" s="9">
         <v>425</v>
       </c>
       <c r="D130" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E130" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B131" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C131" s="9">
         <v>268</v>
       </c>
       <c r="D131" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E131" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B132" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C132" s="9">
         <v>480</v>
       </c>
       <c r="D132" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E132" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B133" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C133" s="9">
         <v>380</v>
       </c>
       <c r="D133" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E133" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B134" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C134" s="9">
         <v>395</v>
       </c>
       <c r="D134" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E134" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589B734F-EE0A-4BCB-A77E-3476596A4FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035D8358-8B11-49F9-8A0D-13771F5DB0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -904,15 +904,9 @@
     <t>D.D KENZO/A-483 - 24/34 - 3PCS BOX - 1120</t>
   </si>
   <si>
-    <t>D.D KENZO/A-468 - 24/34 - 3PCS BOX - 1140</t>
-  </si>
-  <si>
     <t>D.D/A-9132 - 18/22 - 3PCS BOX - 690</t>
   </si>
   <si>
-    <t>D.D/A-9133 - 18/22 - 3PCS BOX - 720</t>
-  </si>
-  <si>
     <t>D.D/A-9124 - 18/22 - 3PCS BOX - 690</t>
   </si>
   <si>
@@ -1141,9 +1135,6 @@
     <t>D.D KENZO/A-483</t>
   </si>
   <si>
-    <t>D.D KENZO/A-468</t>
-  </si>
-  <si>
     <t>D.D/A-9132</t>
   </si>
   <si>
@@ -1279,7 +1270,16 @@
     <t>FRESH SPORTS/A-1293</t>
   </si>
   <si>
-    <t>CORD-SUIT</t>
+    <t>CARGO</t>
+  </si>
+  <si>
+    <t>D.D/A-9133 -22/36 - 3PCS BOX - 645 -TENCIL</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-1434</t>
+  </si>
+  <si>
+    <t>D.D KENZO/A-1434 - 22/32 - 3PCS BOX - 355-COTTON</t>
   </si>
 </sst>
 </file>
@@ -1692,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D99" activeCellId="3" sqref="D91 D95 D87 D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2790,10 +2790,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B63" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C63" s="9">
         <v>660</v>
@@ -2807,10 +2807,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B64" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C64" s="9">
         <v>660</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B65" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C65" s="9">
         <v>660</v>
@@ -2841,10 +2841,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B66" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C66" s="9">
         <v>660</v>
@@ -2858,10 +2858,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B67" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C67" s="9">
         <v>660</v>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B68" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C68" s="9">
         <v>660</v>
@@ -2892,10 +2892,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C69" s="9">
         <v>660</v>
@@ -2909,10 +2909,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B70" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C70" s="9">
         <v>660</v>
@@ -2926,10 +2926,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B71" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C71" s="9">
         <v>660</v>
@@ -2943,10 +2943,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B72" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C72" s="9">
         <v>1150</v>
@@ -2960,10 +2960,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B73" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C73" s="9">
         <v>1250</v>
@@ -2977,10 +2977,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B74" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C74" s="9">
         <v>1190</v>
@@ -2994,10 +2994,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B75" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C75" s="9">
         <v>1190</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B76" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C76" s="9">
         <v>1090</v>
@@ -3028,10 +3028,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B77" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C77" s="9">
         <v>1290</v>
@@ -3045,10 +3045,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B78" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C78" s="9">
         <v>1280</v>
@@ -3062,10 +3062,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B79" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C79" s="9">
         <v>710</v>
@@ -3079,10 +3079,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B80" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C80" s="9">
         <v>750</v>
@@ -3096,10 +3096,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B81" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C81" s="9">
         <v>1120</v>
@@ -3113,10 +3113,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B82" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C82" s="9">
         <v>730</v>
@@ -3130,10 +3130,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B83" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C83" s="9">
         <v>1120</v>
@@ -3147,10 +3147,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B84" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C84" s="9">
         <v>1120</v>
@@ -3164,10 +3164,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B85" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C85" s="9">
         <v>1290</v>
@@ -3181,10 +3181,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B86" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C86" s="9">
         <v>1260</v>
@@ -3198,10 +3198,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B87" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C87" s="9">
         <v>1120</v>
@@ -3215,16 +3215,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="B88" t="s">
-        <v>341</v>
+        <v>179</v>
       </c>
       <c r="C88" s="9">
-        <v>1140</v>
+        <v>355</v>
       </c>
       <c r="D88" t="s">
-        <v>290</v>
+        <v>415</v>
       </c>
       <c r="E88" t="s">
         <v>221</v>
@@ -3232,16 +3232,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B89" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C89" s="9">
         <v>690</v>
       </c>
       <c r="D89" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E89" t="s">
         <v>222</v>
@@ -3249,16 +3249,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B90" t="s">
-        <v>341</v>
+        <v>412</v>
       </c>
       <c r="C90" s="9">
-        <v>720</v>
+        <v>645</v>
       </c>
       <c r="D90" t="s">
-        <v>292</v>
+        <v>413</v>
       </c>
       <c r="E90" t="s">
         <v>223</v>
@@ -3266,16 +3266,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B91" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C91" s="9">
         <v>690</v>
       </c>
       <c r="D91" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E91" t="s">
         <v>224</v>
@@ -3283,16 +3283,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B92" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C92" s="9">
         <v>655</v>
       </c>
       <c r="D92" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E92" t="s">
         <v>225</v>
@@ -3300,16 +3300,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B93" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C93" s="9">
         <v>595</v>
       </c>
       <c r="D93" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E93" t="s">
         <v>226</v>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B94" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C94" s="9">
         <v>715</v>
       </c>
       <c r="D94" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E94" t="s">
         <v>227</v>
@@ -3334,16 +3334,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B95" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C95" s="9">
         <v>650</v>
       </c>
       <c r="D95" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E95" t="s">
         <v>228</v>
@@ -3351,16 +3351,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B96" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C96" s="9">
         <v>350</v>
       </c>
       <c r="D96" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E96" t="s">
         <v>229</v>
@@ -3368,16 +3368,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B97" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C97" s="9">
         <v>330</v>
       </c>
       <c r="D97" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E97" t="s">
         <v>230</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B98" t="s">
         <v>179</v>
@@ -3394,7 +3394,7 @@
         <v>335</v>
       </c>
       <c r="D98" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E98" t="s">
         <v>231</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B99" t="s">
         <v>179</v>
@@ -3411,7 +3411,7 @@
         <v>335</v>
       </c>
       <c r="D99" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E99" t="s">
         <v>232</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B100" t="s">
         <v>179</v>
@@ -3428,7 +3428,7 @@
         <v>445</v>
       </c>
       <c r="D100" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E100" t="s">
         <v>233</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B101" t="s">
         <v>177</v>
@@ -3445,7 +3445,7 @@
         <v>415</v>
       </c>
       <c r="D101" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E101" t="s">
         <v>234</v>
@@ -3453,16 +3453,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B102" t="s">
-        <v>415</v>
+        <v>179</v>
       </c>
       <c r="C102" s="9">
         <v>285</v>
       </c>
       <c r="D102" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E102" t="s">
         <v>235</v>
@@ -3470,16 +3470,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B103" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C103" s="9">
         <v>205</v>
       </c>
       <c r="D103" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E103" t="s">
         <v>236</v>
@@ -3487,16 +3487,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B104" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C104" s="9">
         <v>205</v>
       </c>
       <c r="D104" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E104" t="s">
         <v>237</v>
@@ -3504,16 +3504,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B105" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C105" s="9">
         <v>165</v>
       </c>
       <c r="D105" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E105" t="s">
         <v>238</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B106" t="s">
         <v>177</v>
@@ -3530,7 +3530,7 @@
         <v>240</v>
       </c>
       <c r="D106" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E106" t="s">
         <v>239</v>
@@ -3538,16 +3538,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B107" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C107" s="9">
         <v>97</v>
       </c>
       <c r="D107" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E107" t="s">
         <v>240</v>
@@ -3555,16 +3555,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B108" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C108" s="9">
         <v>108</v>
       </c>
       <c r="D108" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E108" t="s">
         <v>241</v>
@@ -3572,16 +3572,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B109" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C109" s="9">
         <v>377</v>
       </c>
       <c r="D109" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E109" t="s">
         <v>242</v>
@@ -3589,16 +3589,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B110" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C110" s="9">
         <v>405</v>
       </c>
       <c r="D110" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E110" t="s">
         <v>243</v>
@@ -3606,16 +3606,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B111" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C111" s="9">
         <v>125</v>
       </c>
       <c r="D111" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E111" t="s">
         <v>244</v>
@@ -3623,16 +3623,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B112" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C112" s="9">
         <v>125</v>
       </c>
       <c r="D112" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E112" t="s">
         <v>245</v>
@@ -3640,16 +3640,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B113" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C113" s="9">
         <v>195</v>
       </c>
       <c r="D113" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E113" t="s">
         <v>246</v>
@@ -3657,16 +3657,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B114" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C114" s="9">
         <v>165</v>
       </c>
       <c r="D114" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E114" t="s">
         <v>247</v>
@@ -3674,16 +3674,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B115" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C115" s="9">
         <v>120</v>
       </c>
       <c r="D115" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E115" t="s">
         <v>248</v>
@@ -3691,16 +3691,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B116" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C116" s="9">
         <v>195</v>
       </c>
       <c r="D116" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E116" t="s">
         <v>249</v>
@@ -3708,16 +3708,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B117" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C117" s="9">
         <v>515</v>
       </c>
       <c r="D117" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E117" t="s">
         <v>250</v>
@@ -3725,16 +3725,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B118" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C118" s="9">
         <v>515</v>
       </c>
       <c r="D118" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E118" t="s">
         <v>251</v>
@@ -3742,16 +3742,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B119" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C119" s="9">
         <v>485</v>
       </c>
       <c r="D119" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E119" t="s">
         <v>252</v>
@@ -3759,16 +3759,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B120" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C120" s="9">
         <v>122</v>
       </c>
       <c r="D120" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E120" t="s">
         <v>253</v>
@@ -3776,16 +3776,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B121" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C121" s="9">
         <v>133</v>
       </c>
       <c r="D121" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E121" t="s">
         <v>254</v>
@@ -3793,16 +3793,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B122" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C122" s="9">
         <v>158</v>
       </c>
       <c r="D122" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E122" t="s">
         <v>255</v>
@@ -3810,16 +3810,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B123" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C123" s="9">
         <v>194</v>
       </c>
       <c r="D123" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E123" t="s">
         <v>256</v>
@@ -3827,16 +3827,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B124" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C124" s="9">
         <v>228</v>
       </c>
       <c r="D124" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E124" t="s">
         <v>257</v>
@@ -3844,16 +3844,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B125" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C125" s="9">
         <v>210</v>
       </c>
       <c r="D125" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E125" t="s">
         <v>258</v>
@@ -3861,16 +3861,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B126" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C126" s="9">
         <v>210</v>
       </c>
       <c r="D126" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E126" t="s">
         <v>259</v>
@@ -3878,16 +3878,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B127" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C127" s="9">
         <v>288</v>
       </c>
       <c r="D127" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E127" t="s">
         <v>260</v>
@@ -3895,16 +3895,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B128" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C128" s="9">
         <v>288</v>
       </c>
       <c r="D128" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E128" t="s">
         <v>261</v>
@@ -3912,16 +3912,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B129" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C129" s="9">
         <v>319</v>
       </c>
       <c r="D129" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E129" t="s">
         <v>262</v>
@@ -3929,16 +3929,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B130" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C130" s="9">
         <v>425</v>
       </c>
       <c r="D130" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E130" t="s">
         <v>263</v>
@@ -3946,16 +3946,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B131" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C131" s="9">
         <v>268</v>
       </c>
       <c r="D131" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E131" t="s">
         <v>264</v>
@@ -3963,16 +3963,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B132" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C132" s="9">
         <v>480</v>
       </c>
       <c r="D132" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E132" t="s">
         <v>265</v>
@@ -3980,16 +3980,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B133" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C133" s="9">
         <v>380</v>
       </c>
       <c r="D133" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E133" t="s">
         <v>266</v>
@@ -3997,16 +3997,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B134" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C134" s="9">
         <v>395</v>
       </c>
       <c r="D134" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E134" t="s">
         <v>267</v>

--- a/products.xlsx
+++ b/products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA13284E-3E2A-49FD-A001-F365EDBDD316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C61F817-2C27-4202-9DFD-DA32DA15F908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="471">
   <si>
     <t>Category</t>
   </si>
@@ -1410,6 +1410,42 @@
   </si>
   <si>
     <t>BALENO/A-6407 - 20/36 - 3PCS BOX - COTTON - 195 (D-SHOULDER)</t>
+  </si>
+  <si>
+    <t>J SONS/A-2528</t>
+  </si>
+  <si>
+    <t>J SONS/A-2528 - 16/20 - 3PCS BOX - IMPORTED - 710</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/zX92vhR0/Whats-App-Image-2025-05-30-at-11-04-56.jpg</t>
+  </si>
+  <si>
+    <t>CRISPY/A-30859</t>
+  </si>
+  <si>
+    <t>CRISPY/A-30859 - 22/32 - 1PCS BOX - 785</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/mknXQzpZ/Whats-App-Image-2025-05-30-at-11-04-56-1.jpg</t>
+  </si>
+  <si>
+    <t>J SONS/A-2530</t>
+  </si>
+  <si>
+    <t>J SONS/A-2530 - 16/20 - 1PCS BOX - IMPORTED - 755</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/pVc6N4VN/Whats-App-Image-2025-05-30-at-11-04-57.jpg</t>
+  </si>
+  <si>
+    <t>J SONS/A-3438</t>
+  </si>
+  <si>
+    <t>J SONS/A-3438 - 22/32 - 3PCS BOX - IMPORTED - 695</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/kXVh7sD2/Whats-App-Image-2025-05-30-at-11-04-58.jpg</t>
   </si>
 </sst>
 </file>
@@ -1771,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E62FF3-9BA6-4B30-A69D-7F4D8A2DE83B}">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D120" activeCellId="2" sqref="D123 D128 D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4278,6 +4314,74 @@
       </c>
       <c r="F125" t="s">
         <v>447</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>459</v>
+      </c>
+      <c r="B126" t="s">
+        <v>233</v>
+      </c>
+      <c r="C126">
+        <v>710</v>
+      </c>
+      <c r="D126" t="s">
+        <v>460</v>
+      </c>
+      <c r="E126" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>462</v>
+      </c>
+      <c r="B127" t="s">
+        <v>233</v>
+      </c>
+      <c r="C127">
+        <v>785</v>
+      </c>
+      <c r="D127" t="s">
+        <v>463</v>
+      </c>
+      <c r="E127" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>465</v>
+      </c>
+      <c r="B128" t="s">
+        <v>233</v>
+      </c>
+      <c r="C128">
+        <v>755</v>
+      </c>
+      <c r="D128" t="s">
+        <v>466</v>
+      </c>
+      <c r="E128" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>468</v>
+      </c>
+      <c r="B129" t="s">
+        <v>233</v>
+      </c>
+      <c r="C129">
+        <v>695</v>
+      </c>
+      <c r="D129" t="s">
+        <v>469</v>
+      </c>
+      <c r="E129" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C61F817-2C27-4202-9DFD-DA32DA15F908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A590C1C-7E21-4C26-93A2-0B11FFE77E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1810,7 +1810,7 @@
   <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D120" activeCellId="2" sqref="D123 D128 D120"/>
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
